--- a/MADRec (requires xll).xlsx
+++ b/MADRec (requires xll).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Secretarium\Connectors\Secretarium.Connector.Excel.MADRec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\temp\mdemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B1BCE5-DB9E-4834-AE0E-3CF440BCC81A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B241647-848E-4582-A9DC-E68E26037AC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21285" yWindow="0" windowWidth="6645" windowHeight="4725" xr2:uid="{51E6F182-107D-40F6-8556-78E4C8716109}"/>
+    <workbookView xWindow="26123" yWindow="0" windowWidth="6645" windowHeight="4725" xr2:uid="{51E6F182-107D-40F6-8556-78E4C8716109}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="7" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="233">
   <si>
     <t>LEI</t>
   </si>
@@ -771,9 +771,6 @@
   <si>
     <t>wss://ovh1.node.secretarium.org:443/</t>
   </si>
-  <si>
-    <t>0000GB00XXX</t>
-  </si>
 </sst>
 </file>
 
@@ -1285,636 +1282,251 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.b04d5fa17a9c4b88aa1764526b88d5e1">
+    <main first="rtdsrv.14c9e31f2db14c3589d2a2a14c6c61e5">
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:47</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAF0=</stp>
-        <tr r="D36" s="14"/>
+        <stp>AAAAAAAAABY=</stp>
+        <tr r="D64" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:16</v>
+        <v>Executed @14/11/2018 16:47:47</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAF4=</stp>
+        <stp>AAAAAAAAABQ=</stp>
+        <tr r="D78" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:47</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAABU=</stp>
+        <tr r="D56" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:47</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAABI=</stp>
+        <tr r="D89" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:47</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAABM=</stp>
+        <tr r="D101" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:47</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAABA=</stp>
+        <tr r="D95" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:47</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAABE=</stp>
+        <tr r="D82" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:48</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAABs=</stp>
+        <tr r="D15" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:48</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAABw=</stp>
+        <tr r="D44" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:47</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAABk=</stp>
+        <tr r="D33" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:48</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAABo=</stp>
+        <tr r="D6" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:47</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAABc=</stp>
+        <tr r="D38" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:47</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAABg=</stp>
+        <tr r="D67" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:48</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAB8=</stp>
+        <tr r="D54" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:48</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAB0=</stp>
+        <tr r="D43" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:48</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAB4=</stp>
+        <tr r="D13" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:48</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAACY=</stp>
+        <tr r="D62" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:48</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAACQ=</stp>
+        <tr r="D63" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:48</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAACU=</stp>
         <tr r="D60" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:16</v>
+        <v>Executed @14/11/2018 16:47:48</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAF8=</stp>
-        <tr r="D102" s="14"/>
+        <stp>AAAAAAAAACI=</stp>
+        <tr r="D71" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:48</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAFA=</stp>
-        <tr r="D18" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAFE=</stp>
-        <tr r="D16" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAFI=</stp>
-        <tr r="D14" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAFM=</stp>
-        <tr r="D12" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAFQ=</stp>
-        <tr r="D10" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAFU=</stp>
+        <stp>AAAAAAAAACM=</stp>
         <tr r="D8" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:48</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAFY=</stp>
-        <tr r="D6" s="14"/>
+        <stp>AAAAAAAAACA=</stp>
+        <tr r="D58" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:48</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAFc=</stp>
-        <tr r="D76" s="14"/>
+        <stp>AAAAAAAAACE=</stp>
+        <tr r="D99" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:49</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAFg=</stp>
-        <tr r="D84" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAFk=</stp>
-        <tr r="D49" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAFo=</stp>
-        <tr r="D56" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAFs=</stp>
+        <stp>AAAAAAAAACs=</stp>
         <tr r="D28" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:49</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAFw=</stp>
+        <stp>AAAAAAAAACw=</stp>
+        <tr r="D26" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:49</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAACk=</stp>
+        <tr r="D66" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:49</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAACo=</stp>
+        <tr r="D39" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:49</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAACc=</stp>
         <tr r="D37" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:16</v>
+        <v>Executed @14/11/2018 16:47:49</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAGA=</stp>
-        <tr r="D43" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:16</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAGE=</stp>
-        <tr r="D57" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:16</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAGI=</stp>
-        <tr r="D74" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:16</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAGM=</stp>
-        <tr r="D101" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:16</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAGQ=</stp>
+        <stp>AAAAAAAAACg=</stp>
         <tr r="D29" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:16</v>
+        <v>Executed @14/11/2018 16:47:49</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAGU=</stp>
-        <tr r="D51" s="14"/>
+        <stp>AAAAAAAAAC8=</stp>
+        <tr r="D98" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:16</v>
+        <v>Executed @14/11/2018 16:47:49</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAGY=</stp>
+        <stp>AAAAAAAAAC0=</stp>
+        <tr r="D11" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:49</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAC4=</stp>
+        <tr r="D23" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAAY=</stp>
+        <tr r="D52" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAAQ=</stp>
         <tr r="D5" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Executed @14/11/2018 16:47:46</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAD0=</stp>
-        <tr r="D99" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAD4=</stp>
-        <tr r="D30" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAD8=</stp>
-        <tr r="D39" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAADA=</stp>
-        <tr r="D58" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAADE=</stp>
-        <tr r="D32" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAADI=</stp>
-        <tr r="D41" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAADM=</stp>
-        <tr r="D23" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAADQ=</stp>
-        <tr r="D90" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAADU=</stp>
-        <tr r="D89" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAADY=</stp>
-        <tr r="D87" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAADc=</stp>
-        <tr r="D95" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAADg=</stp>
-        <tr r="D78" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAADk=</stp>
-        <tr r="D65" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAADo=</stp>
-        <tr r="D50" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAADs=</stp>
-        <tr r="D80" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAADw=</stp>
+        <stp>AAAAAAAAAAU=</stp>
         <tr r="D91" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAE0=</stp>
-        <tr r="D75" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAE4=</stp>
-        <tr r="D55" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAE8=</stp>
-        <tr r="D20" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAEA=</stp>
-        <tr r="D21" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAEE=</stp>
-        <tr r="D64" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAEI=</stp>
-        <tr r="D70" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAEM=</stp>
-        <tr r="D73" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAEQ=</stp>
-        <tr r="D59" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAEU=</stp>
-        <tr r="D71" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAEY=</stp>
-        <tr r="D45" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAEc=</stp>
-        <tr r="D61" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAEg=</stp>
-        <tr r="D93" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAEk=</stp>
-        <tr r="D52" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAEo=</stp>
-        <tr r="D66" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:14</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAEs=</stp>
-        <tr r="D31" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:15</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAEw=</stp>
-        <tr r="D40" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:12</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAB0=</stp>
-        <tr r="D9" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:12</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAB4=</stp>
-        <tr r="D7" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:12</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAB8=</stp>
-        <tr r="D92" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:11</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAABA=</stp>
-        <tr r="D104" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:11</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAABE=</stp>
-        <tr r="D81" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:11</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAABI=</stp>
-        <tr r="D96" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:11</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAABM=</stp>
-        <tr r="D42" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:11</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAABQ=</stp>
-        <tr r="D27" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:11</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAABU=</stp>
-        <tr r="D34" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:11</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAABY=</stp>
-        <tr r="D77" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:12</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAABc=</stp>
-        <tr r="D68" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:12</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAABg=</stp>
-        <tr r="D19" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:12</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAABk=</stp>
-        <tr r="D17" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:12</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAABo=</stp>
-        <tr r="D15" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:12</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAABs=</stp>
-        <tr r="D13" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:12</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAABw=</stp>
-        <tr r="D11" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAC0=</stp>
-        <tr r="D97" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAC4=</stp>
-        <tr r="D67" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAC8=</stp>
-        <tr r="D44" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:12</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAACA=</stp>
-        <tr r="D62" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:12</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAACE=</stp>
-        <tr r="D72" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:12</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAACI=</stp>
-        <tr r="D85" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:12</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAACM=</stp>
-        <tr r="D103" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:12</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAACQ=</stp>
-        <tr r="D33" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:12</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAACU=</stp>
-        <tr r="D25" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:12</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAACY=</stp>
-        <tr r="D46" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:12</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAACc=</stp>
-        <tr r="D94" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAACg=</stp>
-        <tr r="D83" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAACk=</stp>
-        <tr r="D47" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAACo=</stp>
-        <tr r="D100" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAACs=</stp>
-        <tr r="D63" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:13</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAACw=</stp>
-        <tr r="D38" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:11</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAA0=</stp>
-        <tr r="D82" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:11</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAA4=</stp>
-        <tr r="D69" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>Executed @12/11/2018 13:02:11</v>
-        <stp/>
-        <stp>Request</stp>
-        <stp>AAAAAAAAAA8=</stp>
-        <tr r="D79" s="14"/>
       </tp>
       <tp t="s">
         <v>{_x000D_
@@ -1923,56 +1535,59 @@
     {_x000D_
       "name": "BIC",_x000D_
       "split": [_x000D_
-        2_x000D_
+        5,_x000D_
+        1_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "1WlUDONHZRGjGMyteYzO96lRCig8K2wpUtmOmaUkn1c="_x000D_
+      "total": 6,_x000D_
+      "group": 5,_x000D_
+      "contribution": "0000GB00XXX"_x000D_
     },_x000D_
     {_x000D_
       "name": "EMIR",_x000D_
       "split": [_x000D_
-        2_x000D_
+        1,_x000D_
+        5_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+      "total": 6,_x000D_
+      "group": 5,_x000D_
+      "contribution": "FC"_x000D_
     },_x000D_
     {_x000D_
       "name": "GK",_x000D_
       "split": [_x000D_
-        2_x000D_
+        6_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "a4ayc/80/OGda4BO/1o/V0etpOqiLx1JwB5S3beHW0s="_x000D_
+      "total": 6,_x000D_
+      "group": 6,_x000D_
+      "contribution": "1"_x000D_
     },_x000D_
     {_x000D_
       "name": "IF",_x000D_
       "split": [_x000D_
-        2_x000D_
+        1,_x000D_
+        5_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+      "total": 6,_x000D_
+      "group": 5,_x000D_
+      "contribution": true_x000D_
     },_x000D_
     {_x000D_
       "name": "NACE",_x000D_
       "split": [_x000D_
-        2_x000D_
+        6_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+      "total": 6,_x000D_
+      "group": 6,_x000D_
+      "contribution": "1.11"_x000D_
     },_x000D_
     {_x000D_
       "name": "PERMID",_x000D_
       "split": [_x000D_
-        2_x000D_
+        6_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "UqXUoHHYLK6ocymGjSL2uDkKw9Inxv3g1FJeaVEOxHk="_x000D_
+      "total": 6,_x000D_
+      "group": 6,_x000D_
+      "contribution": "1000000000"_x000D_
     }_x000D_
   ]_x000D_
 }</v>
@@ -1982,75 +1597,462 @@
         <tr r="F5" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:10</v>
+        <v>Executed @14/11/2018 16:47:45</v>
         <stp/>
         <stp>Request</stp>
         <stp>AAAAAAAAAAM=</stp>
+        <tr r="D7" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAAs=</stp>
+        <tr r="D74" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAAw=</stp>
+        <tr r="D61" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAAk=</stp>
+        <tr r="D24" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAAo=</stp>
+        <tr r="D47" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAAc=</stp>
+        <tr r="D45" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAAg=</stp>
+        <tr r="D51" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:47</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAA8=</stp>
+        <tr r="D97" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAA0=</stp>
+        <tr r="D12" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:47</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAA4=</stp>
+        <tr r="D18" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAFY=</stp>
+        <tr r="D70" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAFQ=</stp>
+        <tr r="D87" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAFU=</stp>
+        <tr r="D92" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAFI=</stp>
+        <tr r="D9" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAFM=</stp>
+        <tr r="D30" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAFA=</stp>
+        <tr r="D34" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAFE=</stp>
+        <tr r="D17" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAFs=</stp>
         <tr r="D48" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:10</v>
+        <v>Committed @14/11/2018 16:47:46</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAAQ=</stp>
-        <tr r="D54" s="14"/>
+        <stp>AAAAAAAAAFw=</stp>
+        <tr r="D102" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:10</v>
+        <v>Committed @14/11/2018 16:47:46</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAAU=</stp>
+        <stp>AAAAAAAAAFk=</stp>
+        <tr r="D50" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAFo=</stp>
+        <tr r="D57" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAFc=</stp>
+        <tr r="D84" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAFg=</stp>
+        <tr r="D76" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAF8=</stp>
+        <tr r="D90" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAF0=</stp>
+        <tr r="D72" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAF4=</stp>
+        <tr r="D20" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAGY=</stp>
+        <tr r="D73" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAGQ=</stp>
+        <tr r="D85" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAGU=</stp>
         <tr r="D88" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:10</v>
+        <v>Committed @14/11/2018 16:47:46</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAAY=</stp>
-        <tr r="D98" s="14"/>
+        <stp>AAAAAAAAAGI=</stp>
+        <tr r="D104" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:10</v>
+        <v>Committed @14/11/2018 16:47:46</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAAc=</stp>
-        <tr r="D26" s="14"/>
+        <stp>AAAAAAAAAGM=</stp>
+        <tr r="D21" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:10</v>
+        <v>Committed @14/11/2018 16:47:46</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAAg=</stp>
+        <stp>AAAAAAAAAGA=</stp>
         <tr r="D35" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:10</v>
+        <v>Committed @14/11/2018 16:47:46</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAAk=</stp>
+        <stp>AAAAAAAAAGE=</stp>
+        <tr r="D27" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:50</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAADY=</stp>
+        <tr r="D83" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:50</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAADQ=</stp>
+        <tr r="D81" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:50</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAADU=</stp>
+        <tr r="D59" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:49</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAADI=</stp>
+        <tr r="D94" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:49</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAADM=</stp>
+        <tr r="D100" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:49</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAADA=</stp>
+        <tr r="D103" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:49</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAADE=</stp>
+        <tr r="D96" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:50</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAADs=</stp>
         <tr r="D22" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:10</v>
+        <v>Executed @14/11/2018 16:47:50</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAAo=</stp>
+        <stp>AAAAAAAAADw=</stp>
+        <tr r="D41" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:50</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAADk=</stp>
+        <tr r="D36" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:50</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAADo=</stp>
         <tr r="D53" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:11</v>
+        <v>Executed @14/11/2018 16:47:50</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAAs=</stp>
-        <tr r="D24" s="14"/>
+        <stp>AAAAAAAAADc=</stp>
+        <tr r="D65" s="14"/>
       </tp>
       <tp t="s">
-        <v>Executed @12/11/2018 13:02:11</v>
+        <v>Executed @14/11/2018 16:47:50</v>
         <stp/>
         <stp>Request</stp>
-        <stp>AAAAAAAAAAw=</stp>
+        <stp>AAAAAAAAADg=</stp>
+        <tr r="D19" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:50</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAD8=</stp>
+        <tr r="D10" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:50</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAD0=</stp>
+        <tr r="D32" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:50</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAD4=</stp>
+        <tr r="D75" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:51</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAEY=</stp>
+        <tr r="D68" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:51</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAEQ=</stp>
+        <tr r="D55" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:51</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAEU=</stp>
+        <tr r="D14" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:51</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAEI=</stp>
+        <tr r="D77" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:51</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAEM=</stp>
+        <tr r="D80" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:50</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAEA=</stp>
+        <tr r="D16" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:51</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAEE=</stp>
+        <tr r="D93" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:51</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAEs=</stp>
+        <tr r="D46" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:51</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAEw=</stp>
+        <tr r="D40" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:51</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAEk=</stp>
+        <tr r="D69" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:51</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAEo=</stp>
+        <tr r="D31" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:51</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAEc=</stp>
+        <tr r="D49" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Executed @14/11/2018 16:47:51</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAEg=</stp>
         <tr r="D86" s="14"/>
       </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAE8=</stp>
+        <tr r="D79" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAE0=</stp>
+        <tr r="D25" s="14"/>
+      </tp>
+      <tp t="s">
+        <v>Committed @14/11/2018 16:47:46</v>
+        <stp/>
+        <stp>Request</stp>
+        <stp>AAAAAAAAAE4=</stp>
+        <tr r="D42" s="14"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.14c9e31f2db14c3589d2a2a14c6c61e5">
       <tp t="s">
         <v>SecureConnectionEstablished</v>
         <stp/>
@@ -2157,6 +2159,26 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-87B0-4721-AD2B-D88ADCFBE7CD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2223,9 +2245,12 @@
               <c:f>[0]!MADREC_CHART_SERIE_0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2394,6 +2419,26 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9A37-426F-BCC1-19858AB92D81}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2451,9 +2496,12 @@
               <c:f>[0]!MADREC_CHART_SERIE_1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2681,7 +2729,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2850,6 +2898,26 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FB29-4B91-9489-5A6100173315}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2907,9 +2975,12 @@
               <c:f>[0]!MADREC_CHART_SERIE_3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3137,7 +3208,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3365,7 +3436,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6962,10 +7033,10 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Contrib: 1WlUDONHZRGjGMyteYzO96lRCig8K2wpUtmOmaUkn1c=
-Total: 2
-Group: 2
-Split: [2]</a:t>
+            <a:t>Contrib: 0000GB00XXX
+Total: 6
+Group: 5
+Split: [5,1]</a:t>
           </a:fld>
           <a:endParaRPr lang="en-GB" sz="1000">
             <a:solidFill>
@@ -7062,7 +7133,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>full consensus</a:t>
+            <a:t>split consensus with majority</a:t>
           </a:fld>
           <a:endParaRPr lang="en-GB" sz="1400">
             <a:solidFill>
@@ -7194,10 +7265,10 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Contrib: tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k=
-Total: 2
-Group: 2
-Split: [2]</a:t>
+            <a:t>Contrib: FC
+Total: 6
+Group: 5
+Split: [5,1]</a:t>
           </a:fld>
           <a:endParaRPr lang="en-GB" sz="1000">
             <a:solidFill>
@@ -7294,7 +7365,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>full consensus</a:t>
+            <a:t>split consensus with majority</a:t>
           </a:fld>
           <a:endParaRPr lang="en-GB" sz="1400">
             <a:solidFill>
@@ -7426,10 +7497,10 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Contrib: a4ayc/80/OGda4BO/1o/V0etpOqiLx1JwB5S3beHW0s=
-Total: 2
-Group: 2
-Split: [2]</a:t>
+            <a:t>Contrib: 1
+Total: 6
+Group: 6
+Split: [6]</a:t>
           </a:fld>
           <a:endParaRPr lang="en-GB" sz="1000">
             <a:solidFill>
@@ -7658,10 +7729,10 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Contrib: tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss=
-Total: 2
-Group: 2
-Split: [2]</a:t>
+            <a:t>Contrib: True
+Total: 6
+Group: 5
+Split: [5,1]</a:t>
           </a:fld>
           <a:endParaRPr lang="en-GB" sz="1000">
             <a:solidFill>
@@ -7758,7 +7829,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>full consensus</a:t>
+            <a:t>split consensus with majority</a:t>
           </a:fld>
           <a:endParaRPr lang="en-GB" sz="1400">
             <a:solidFill>
@@ -7890,10 +7961,10 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Contrib: sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic=
-Total: 2
-Group: 2
-Split: [2]</a:t>
+            <a:t>Contrib: 1.11
+Total: 6
+Group: 6
+Split: [6]</a:t>
           </a:fld>
           <a:endParaRPr lang="en-GB" sz="1000">
             <a:solidFill>
@@ -8122,10 +8193,10 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Contrib: UqXUoHHYLK6ocymGjSL2uDkKw9Inxv3g1FJeaVEOxHk=
-Total: 2
-Group: 2
-Split: [2]</a:t>
+            <a:t>Contrib: 1000000000
+Total: 6
+Group: 6
+Split: [6]</a:t>
           </a:fld>
           <a:endParaRPr lang="en-GB" sz="1000">
             <a:solidFill>
@@ -8659,7 +8730,7 @@
   <dimension ref="B2:V104"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8697,7 +8768,7 @@
         <v>28</v>
       </c>
       <c r="V2" s="27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.45">
@@ -8771,9 +8842,7 @@
       <c r="B5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>233</v>
-      </c>
+      <c r="C5" s="24"/>
       <c r="D5" s="24" t="s">
         <v>22</v>
       </c>
@@ -8795,7 +8864,7 @@
       </c>
       <c r="K5" t="str" cm="1">
         <f t="array" ref="K5">_xll.MADRec.Format.Verify(K$4,C5)</f>
-        <v>0000GB00XXX</v>
+        <v/>
       </c>
       <c r="L5" t="str" cm="1">
         <f t="array" ref="L5">_xll.MADRec.Format.Verify(L$4,D5)</f>
@@ -8826,27 +8895,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "1WlUDONHZRGjGMyteYzO96lRCig8K2wpUtmOmaUkn1c="_x000D_
+    "value": ""_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "a4ayc/80/OGda4BO/1o/V0etpOqiLx1JwB5S3beHW0s="_x000D_
+    "value": "1"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "UqXUoHHYLK6ocymGjSL2uDkKw9Inxv3g1FJeaVEOxHk="_x000D_
+    "value": "1000000000"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -8910,27 +8979,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "6IWX4HtAqR+pdtEGlP28DDq8scWnJxfqBurc2ZydTsM="_x000D_
+    "value": "0000GB01XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "a4ayc/80/OGda4BO/1o/V0etpOqiLx1JwB5S3beHW0s="_x000D_
+    "value": "1"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "gKfND/t4s2QIkle2EmCa4kqeiGolE+4LOn3Ge4KMjDw="_x000D_
+    "value": "1000000001"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -8994,27 +9063,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "EdsV1XYJW5eEkLXnUvIGxZNJFFJm29f5q1YcFCxOefY="_x000D_
+    "value": "0000GB02XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "1HNeOiZeFu7gP1lxi5tdAwGcB9i2xR+Q2jpmbuwTqzU="_x000D_
+    "value": "2"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "hqNTOvIPPBBkCvRTk8lSqgwAkbQHb4dHg5v1ZkvYnsY="_x000D_
+    "value": "1000000002"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -9078,27 +9147,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "2uqnjgPQOk9KixGWbF8HUjQDEGnGsDOLkaaVGntdjpo="_x000D_
+    "value": "0000GB03XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "TgdAhWK+24tgzgXB3s/jrRa3IjCWfeAfZAt+Rym0n84="_x000D_
+    "value": "3"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "/phEqXxJ4hY3aDL3Isv2YT+mI55lrlQaxott15JxXUk="_x000D_
+    "value": "1000000003"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -9162,27 +9231,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "/E7S3F/kccHjYftG6sXE2URYqQWJrB8HNxzirtnvANQ="_x000D_
+    "value": "0000GB04XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "SyJ3d9TdH8Ycb4hPSGQdArTRIdP9Moywi1Ux/Kzav4o="_x000D_
+    "value": "4"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "LVo4sNUKxt83sSbD9mNrME3BsxzzxkoKWyfukkM2ppc="_x000D_
+    "value": "1000000004"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -9246,27 +9315,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "ESoxkNVDZRadIlPO4s28TTQTGxMmeiHUg/Wf7iorzYA="_x000D_
+    "value": "0000GB05XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "7y0SfeN7lCuq0GFF5UsMYZofIjJ7LrvPvsePVWSv450="_x000D_
+    "value": "5"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "wKXXlkApt3fGYiVsV2AdJYeXZmDkDv9LVbPFkH0J4EQ="_x000D_
+    "value": "1000000005"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -9330,27 +9399,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "nPf9jJMEX1JflCHdkdJYjaQ31A3lGasZV25i4qWRs/o="_x000D_
+    "value": "0000GB06XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "5/bAEXdujbfNMwtUF0/Xb30CFrYSOHpf/PuB5vCRloM="_x000D_
+    "value": "6"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "k19AvfmH5xDuKiSJmII2PkZntPhc+4GKiM9NpVQrCVc="_x000D_
+    "value": "1000000006"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -9414,27 +9483,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "C+2lRBX14k54Ym9M9oRIDHXQ29WPNCRLmm6tk+86hI0="_x000D_
+    "value": "0000GB07XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "eQJpm+Qsio5G+7tFAXJlF+hrIsVqGJ92JabaSQgbJFE="_x000D_
+    "value": "7"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "ASgXB32g7lmu14f+fDvm2V/WkfkenIxjz+L5+7LdheI="_x000D_
+    "value": "1000000007"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -9498,27 +9567,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "l8eirS7tkmtD5Or+sFyw28ZiOI8l/oxZUDPiTowYSk0="_x000D_
+    "value": "0000GB08XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "LGJCMs3SIXcSlN+7MQrKAAoN9qyLZraW2Q7wb977ZKM="_x000D_
+    "value": "8"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "oiapYfmksAlIQpSklYtDgmaWn3zu5n+iCDeeLTOovLw="_x000D_
+    "value": "1000000008"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -9582,27 +9651,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "jvX6w1RJuyQt4OydJhVIE41A9yz2k7rKOo+TlyWlPEw="_x000D_
+    "value": "0000GB09XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "GVgeJ9587QD/HOULIEfnpWfHaxy666vl7wP3wwF7tbc="_x000D_
+    "value": "9"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "KekmZXG8XjhI/9IGjZcXLinQO9esTpDNVykysvZ46Lw="_x000D_
+    "value": "1000000009"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -9666,27 +9735,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "TG9GWL33ae9B8+RAr3t1GqxfiKkb5mEcdgLa11JjAaU="_x000D_
+    "value": "0000GB10XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "SkTcFTZCBKgP6A6QOUVcwWCCgYIP4rJPHlIzreavHdU="_x000D_
+    "value": "10"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "+qw2f02/h0xoHi22UUr400i+zglX3VMd++VA6MwF7qA="_x000D_
+    "value": "1000000010"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -9750,27 +9819,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "tQu/H4FEigpYrWi08YPisMAJS2E/8hPwEvBzbTDcp9Y="_x000D_
+    "value": "0000GB11XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "T8grJq7LR9KGjE7741gXMqPny8xsLvsyBiwIFwoF7rg="_x000D_
+    "value": "11"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "txpJLmdcom3cqzAgwIfA5yXfH9lA/duRUuh3ESFVBD0="_x000D_
+    "value": "1000000011"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -9834,27 +9903,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "XGVa9P9dy1sGfAQ6ZKDZcVsxc/hJUUqt0JCWQhPkB8I="_x000D_
+    "value": "0000GB12XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "a1HUMd9dfxQcvs7M957fPdhhw7QGnwsRZho+76y7qRg="_x000D_
+    "value": "12"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "p5fxMXYxJJUy49BlBuIO1qLK7tdVD/lRLleZ+hkj/9A="_x000D_
+    "value": "1000000012"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -9918,27 +9987,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "6S1M/GQ1LMC+ojgzSiFg9xenwBQ5HqX1GPj5Ff6fFDM="_x000D_
+    "value": "0000GB13XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "P9ujXwTcjEYphsmSvPh1VGJXETByqQnBYvfkcOWB4ng="_x000D_
+    "value": "13"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "DXTlur+F2AbMBLa8YaS6fkrPSsu5ZTb3Z8HxvbpgJ8U="_x000D_
+    "value": "1000000013"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -10002,27 +10071,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "n5TESoL519gRsidI36Ti9w2Ci6GqoHJeukoIm/pbUBo="_x000D_
+    "value": "0000GB14XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "hSeokeIkE2lQ/zLKIStFvJP2n7uAHDsevtrFJ3X5nmE="_x000D_
+    "value": "14"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "t76nJKgJYgK52tmI+znBnk9zFpy/L1QWXz7fFmxtI0E="_x000D_
+    "value": "1000000014"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -10086,27 +10155,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "tG5ImS27hKDHPp4qM1nNvqXcCcQs3h/pdUOtrtTh8oA="_x000D_
+    "value": "0000GB15XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "5in6ZZjXMnaPfHJrS2IShfnDuFMDkAqpEgF9t2F9i9s="_x000D_
+    "value": "15"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "W/EQTeH5nW0pr9lGabBHC+3THvrQpPyaKxIQN5PQmUQ="_x000D_
+    "value": "1000000015"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -10170,27 +10239,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "KcLIFUy4r1zYI9cYmD6kqjI0tSrkfLfH3k28wJSmEGk="_x000D_
+    "value": "0000GB16XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "sX720Zx6Wx7oO5B8WVUm3LHrBtuCJ9ZQ1d2gqfTOjNk="_x000D_
+    "value": "16"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "wNwzBYbrA3tmFE2FKSrjt4eLedPiXolFVA5mXFzpzKw="_x000D_
+    "value": "1000000016"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -10254,27 +10323,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "V3T4ZcbUuE9daMUfz6itMroGIjNniLA1M/2esYxyaEs="_x000D_
+    "value": "0000GB17XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "RSNUDxUEzRcQDEg16Ft+79SZEVgPjv/wWZqPKDvmueM="_x000D_
+    "value": "17"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "mzm8nc9q+w/tq4tEtoFDSBaqn5zOQdR8RWsG6BlDybA="_x000D_
+    "value": "1000000017"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -10338,27 +10407,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "u2nEMzUAlZjQ2yvVmc9W73S7ZbuhtLcZJDAlHnFhGMA="_x000D_
+    "value": "0000GB18XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "TslZn8ID0XajAVNsLgkaGbyFJ1myVb1oGIEKQsX+0Uo="_x000D_
+    "value": "18"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "7y9BPcer52/gOgjcSZamxiyv+HhI6iKW9R9Nry5uvYc="_x000D_
+    "value": "1000000018"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -10422,27 +10491,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "NY+51CoHhUUtudfbxj7ZfqtMGD6RrC0F6N+HazAJk1U="_x000D_
+    "value": "0000GB19XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "lADxshy1J9f6PT6rupNVehjr56LKTkcc/l5MW0yn92c="_x000D_
+    "value": "19"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "MwsIk9Nq36QcAnynGBYVoGMMbfnYIe4cPI/9QCA5Fm0="_x000D_
+    "value": "1000000019"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -10506,27 +10575,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "wpSoP0r6WxzMOzPh47+HS02XW87i+5uEGwu7clPTPlY="_x000D_
+    "value": "0000GB20XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "9co490ih1ur3JrikL7V1w8cfGGSoFDMBeC3hPaLZICs="_x000D_
+    "value": "20"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "mFixxLpYzLjPocb4nb2JZU6F4ZlwN+6WmsmqmU4OonY="_x000D_
+    "value": "1000000020"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -10590,27 +10659,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "oeLieUFLrRCrsrCBhcFe1IDbyIXxdDEzbyEgzJW3VxY="_x000D_
+    "value": "0000GB21XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "b0tmEhJfs6Da7NJ5nf1snCmUJP2SD5swgRCiwfvY9EM="_x000D_
+    "value": "21"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "6EQD5FDXxYNX4yRxRUcF5ldWKTMWYGVgLAyGcFArHtw="_x000D_
+    "value": "1000000021"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -10674,27 +10743,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "mhvX82NSNH42zChomK+9LdrCPzmDhnIWvyckheWdDVo="_x000D_
+    "value": "0000GB22XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "eF8+x+sy8wuQzQ/PNlfTiLX/Qpfy+XFv9m6bacBd3Qk="_x000D_
+    "value": "22"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "TctISkYeWrDFEGDnnOX272dz5Z3HcTZpohM4wwb4an4="_x000D_
+    "value": "1000000022"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -10758,27 +10827,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "gyiEpbbI842zX8E8kVg58fsjBZmv77CIaTwsjEG0RC4="_x000D_
+    "value": "0000GB23XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "U1+jDX4l3YpJ8VNneXNOyChhCNEV2lBF1387QYXY95A="_x000D_
+    "value": "23"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "DQYTPcMGCOcApXjFBYZcFCAUP50NdQ5ckkzzdbce7Jg="_x000D_
+    "value": "1000000023"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -10842,27 +10911,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "ehxjhbooCKZ/Ns2KSnfA3zXL6EBStqhAgydm9Fwva2I="_x000D_
+    "value": "0000GB24XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "wjVgaenR55ypJDeBU8+7+01EFrH5nUGilAv9tmxTGds="_x000D_
+    "value": "24"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "9aseZbosFm91wgWBZXfJzcMvyWc7u+A0xqO6CnALRZE="_x000D_
+    "value": "1000000024"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -10926,27 +10995,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "g9iCY7V34gtqQNBdlAfGtJWS4m2vNh2MF61yPlWnHOw="_x000D_
+    "value": "0000GB25XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "t6Voc813HyxEbTabZJQwtlp1a6J4/5fsgbtvVbLnNWk="_x000D_
+    "value": "25"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "3/5KmidgO5N73wPw2X3b+vuxpoO0jgrJjdOuMouzM2U="_x000D_
+    "value": "1000000025"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -11010,27 +11079,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "seQxM3SALJSc+MGU9DqUm45XmSK+lCn47uH4XAeOMgc="_x000D_
+    "value": "0000GB26XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "X5xKsIysdFfpERow5GZJIGB+osEVoUM9e+mOl+ZCRMo="_x000D_
+    "value": "26"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "+nS21jvzi1mYFKmKkn8vkCOcyyRhVgEtcj/ke63N1uc="_x000D_
+    "value": "1000000026"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -11094,27 +11163,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "3gAmTQF4NINZ16kpshRfK3a1YswxIsbgJG8wYgtxH50="_x000D_
+    "value": "0000GB27XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "ZwZxzZdAQVYiblB5c/KrgzDTAiypbgyTvb2zIMQa3K8="_x000D_
+    "value": "27"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "RND3ExBxblti9roauWvWHiZud0tTmt6yThTwZ1sQHjA="_x000D_
+    "value": "1000000027"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -11178,27 +11247,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "0aRwUuY7OjxuqudCODtYgJMsw/TLUaC4q0uIYQBrxhs="_x000D_
+    "value": "0000GB28XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "WeGXBtUdOfZnEcJlPNfrEpHJTZtV6xS9p0zk3GNtAVo="_x000D_
+    "value": "28"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "pvzUTilu0vGVWmuaeHH/82s6x0qmk3cug3iNcIHZCgk="_x000D_
+    "value": "1000000028"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -11262,27 +11331,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "DLpcerJJuuyOf2a6l6cfIcV5GmQnHxfLQHjDJbVcZik="_x000D_
+    "value": "0000GB29XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "NRNaqmzCOJG0DLPzeMU6F6ESchDOYOElzPA+/P2uxFg="_x000D_
+    "value": "29"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "vNn7zorTDMt/231qUJ1gUPeUAF/SfZqWXemJ+UM3Kgg="_x000D_
+    "value": "1000000029"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -11346,27 +11415,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "rGigGLGm3gZozDvozFQkogOkOOvQWxEyyX8m3fmkUZs="_x000D_
+    "value": "0000GB30XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "YktgxYydi/tv8YhsL9YF0q3rbqTaV2BoIBtsaVjOk/Q="_x000D_
+    "value": "30"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "24xxZlI4z3SnrmNDbBpIwma4fSY+8i9t85s1pRxeCms="_x000D_
+    "value": "1000000030"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -11430,27 +11499,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "JKw6zz2hEVF4fHYxw3ZWEQ+3PkHtcKA9iuqmKubcO5I="_x000D_
+    "value": "0000GB31XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "6x4z6KgbaXt1hVr2v828v3y73p+Ulizq7B7YryH1pQ8="_x000D_
+    "value": "31"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "k9wtaHUz87TeA16BYWlAs315rqzcjvnnNAfXvLMl0VU="_x000D_
+    "value": "1000000031"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -11514,27 +11583,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "zjdRzRuQCWfHlmQH0m3xfY+DbCAeBmwy9lDAJceAQGs="_x000D_
+    "value": "0000GB32XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "4pycGAxiebCwKr1qGAHHwECCz0huwCeqE1FeTziEu2s="_x000D_
+    "value": "32"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "gTHJGDQtnO+R47aNULCMfrMoCeBkNhOWK1Q0UMSSMeA="_x000D_
+    "value": "1000000032"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -11598,27 +11667,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "Ha0GHhQjJOWRvtWvrihgXhImYUNGT2NqhIO3fsJ+V3E="_x000D_
+    "value": "0000GB33XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "xvOsV5RKUxSQzTmQLQ93dxX9AF76yaMGItX1IF5/aJQ="_x000D_
+    "value": "33"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "uryYRNgIUDJyG/+azlHq8MIGf8D3QLTnL0axD56Xeto="_x000D_
+    "value": "1000000033"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -11682,27 +11751,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "l+gWwsR4egRGQC1dT/F5Qyo0/lmUlCM7DTNNmIq3D7Y="_x000D_
+    "value": "0000GB34XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "huUBSWWGYTEqngs1VY2E9sbT2nl/VSqWV/4FWMpAze8="_x000D_
+    "value": "34"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "T6+9j+dlTJaNYOHQPVOqY2scap8HXo9cPsMzUlZUg2k="_x000D_
+    "value": "1000000034"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -11766,27 +11835,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "fvBYY4I1/Er43v+cpm5ZqxLdenQoG4HWXRcEesXDXSg="_x000D_
+    "value": "0000GB35XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "nxQCWvAGWzDkfiPrs7SR05ro7RfTNznl/zgn/7NjSVM="_x000D_
+    "value": "35"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "/wyGZkENSLer1ygZEkdoNEpnjQRAezc8s9rTNGO/OCU="_x000D_
+    "value": "1000000035"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -11850,27 +11919,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "QQYNvuOM6k+aM83LIQoA529NzG7CPUz7veBixcmDRvU="_x000D_
+    "value": "0000GB36XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "dqUIh9jxwukwF1VCiZCtgUee4hwltDIVz1JFQeBQMmk="_x000D_
+    "value": "36"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "JGNaLp+v4wZzD/0lXE2cgCfaN73nQpN7e3vC/UOE3go="_x000D_
+    "value": "1000000036"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -11934,27 +12003,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "WkaU+ljmA4yFCp1tXHZU1WmyUzy4cCpw8JCzL9U9iXY="_x000D_
+    "value": "0000GB37XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "emG1NwG+/a4O7v+uzHPxTiC1N7sPi5GtfCk23GNWKyU="_x000D_
+    "value": "37"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "VVdCPCrEVEMJgcNgMZv22WcMmYChommi+q6K6YMqrnA="_x000D_
+    "value": "1000000037"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -12018,27 +12087,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "Bk1PyqD0gQHGiD49c2kBiULctdEqc8RO65ztSfyzJsA="_x000D_
+    "value": "0000GB38XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "rqkhMsTL6yY+asK/bBg7XYFzfxefIe/cWGNzlnLw9HA="_x000D_
+    "value": "38"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "FTi4SrGoRZXKTAMaSDUoOKxxjXeXHLdm4fCPoskm2qk="_x000D_
+    "value": "1000000038"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -12102,27 +12171,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "2PEUGAPbtrwLy3WrdXkZBZiaX7NKSbQySQKLVB6Pj3Y="_x000D_
+    "value": "0000GB39XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "C5GJQ98JYrx6GCTAVVo4k0e0/r3Hz50SVEBtgM5E4/k="_x000D_
+    "value": "39"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "B0AHAqWZCbyIF/xDX3YZFAL59GLnGFFQ+06dkIOxFY8="_x000D_
+    "value": "1000000039"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -12186,27 +12255,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "sjMMxatyN7YG1p53pWP2eBsIx+thCkBuydo63JJ/ZdU="_x000D_
+    "value": "0000GB40XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "1Z7O0d7Qf4TBRVkvZb34VDWOAJxc1wX1IVvxhpf+0QM="_x000D_
+    "value": "40"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "ryVPmpbgqrXe1y4PM3SVxsLPIMiBYOjgI3zXp2g+dAg="_x000D_
+    "value": "1000000040"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -12270,27 +12339,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "vt7eakOksrxKJmA6+rFjOC9PtrdRolvRhIQ7grfAOAk="_x000D_
+    "value": "0000GB41XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "PZFPk0jJzA/4p5cWcAufzU0vPnEWCABOuPE4vLp/FNk="_x000D_
+    "value": "41"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "+1tayukMmSEWW8U8xa5BbVr9BXK3/oU2aJlPlcX0zqk="_x000D_
+    "value": "1000000041"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -12354,27 +12423,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "XfuuRuMP+bx3r1Cnew1UDCTgPRgGp8jsQk8beNp9te4="_x000D_
+    "value": "0000GB42XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "c0dctApWjo2ooEXO0RATfhWfiQrE2og7axfcZRs6gEk="_x000D_
+    "value": "42"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "kkKtYKFJkSvEkxY8wCReVIehpbluRc2edfVCubTyDy0="_x000D_
+    "value": "1000000042"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -12438,27 +12507,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "f/2JANOjDXw7Ft8Y8RQqJL1qnV3wolghMfHDfzdzaww="_x000D_
+    "value": "0000GB43XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "RMtzDEIEgKBHe1Ba5or1CPuQ+Wzw7FTGrRaUndQn8To="_x000D_
+    "value": "43"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "Z2yKtoA/9BhgFFG7prCZrDU4J6AmHrM6QekqW/Ek+Uc="_x000D_
+    "value": "1000000043"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -12522,27 +12591,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "+GuP3pWg5v8md1c7+rD19w1gZCzNSYVHne4mXO6Grco="_x000D_
+    "value": "0000GB44XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "ce5Fo8Dbmphl9zE90zcs9g3KZHnUYmHzVC65NG5KBNY="_x000D_
+    "value": "44"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "bgM0WiRGeAlEoZ6Bbv3LY+umE5cZLS8iNXUTRVF3D3M="_x000D_
+    "value": "1000000044"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -12606,27 +12675,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "+numNBO9TP+SL8GCN5jCbpWWU8mIsaeF1NfIf/Sccs0="_x000D_
+    "value": "0000GB45XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "gReGrRrnSt/dIN0Dcquq68YkbjQ669AdoL/EwCvwEGw="_x000D_
+    "value": "45"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "7lvx/4LryAJwgVgNiuHDpt9PfIfCE4V727MBGLuI6js="_x000D_
+    "value": "1000000045"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -12690,27 +12759,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "GdVNzwTNgPUh4m2SR8p9GewNIQsDAmjd8tXRTbShqxA="_x000D_
+    "value": "0000GB46XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "JfwOcJb8ZTcYIC3DCwxYC4q4fqwRpwDLoDp8AhvDWww="_x000D_
+    "value": "46"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "ZKg0db9eGJf6wQaaRWahL1qp96gw+964VeYULZCcnIk="_x000D_
+    "value": "1000000046"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -12774,27 +12843,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "rK1zS94TG+uotAoLslE5EMMuqcsbYPVrtullUTp1Dv0="_x000D_
+    "value": "0000GB47XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "MUiQVuCRbVn+Ot155j8JWvP/uBYEaR8hytRCqFx75hc="_x000D_
+    "value": "47"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "CtWYEV4nduQLvwekkHmsHLSca13kL+QaTgNZC/mBmiQ="_x000D_
+    "value": "1000000047"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -12858,27 +12927,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "o9W7KHVOvEMcqmXxBKrP8L9o8lH37A6NYVwk9tFo9hs="_x000D_
+    "value": "0000GB48XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "mAEL2ScPmxALYhSiF1T9M73I1BsryfndFv9U08NP/XE="_x000D_
+    "value": "48"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "B99nYlHQPjpxnJaNLwbFRej8fPoW1F13g6NUV4zRasU="_x000D_
+    "value": "1000000048"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -12942,27 +13011,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "Fkd546KbeJIMKjlvSKri5vOxELj7Yirk4EioKWr1xBc="_x000D_
+    "value": "0000GB49XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "Dhfayl8+F19Ei6ys47wNpH0GVadMjdDcSXo6+9rZXx8="_x000D_
+    "value": "49"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "1Xhh0DxzS0Fs1pleyzBByvPfYMOoi8Nr4kdM4/3XCx8="_x000D_
+    "value": "1000000049"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -13026,27 +13095,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "EMG0FVMgV4+cB3KTh2vgeh7VpjluIkz785HW97yxQyA="_x000D_
+    "value": "0000GB50XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "GmViWQ7xnRBF0GxAVXQtOCiOnm3NcczeXO6A8dWndOs="_x000D_
+    "value": "50"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "x0pkDgPH0Pf4qAxp7/RmTzb05Il6K+wlO5eazPY25jM="_x000D_
+    "value": "1000000050"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -13110,27 +13179,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "ivgZ31+aRFTjUd8h6irMne1VvbBOLgttp2jii9DkAI0="_x000D_
+    "value": "0000GB51XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "AxtK9Rl+wwqSb0jPQOEafbxHAEiiHkADt6PAfF2rG6o="_x000D_
+    "value": "51"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "kgX8FumIuAKVgxO8oCO156yx/qmhOW17gNluz3oSGp0="_x000D_
+    "value": "1000000051"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -13194,27 +13263,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "+p0zK3BunTi3cZH0NgNtt7/ExjQsR3rlZSjW5sI7JFM="_x000D_
+    "value": "0000GB52XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "Qc/A0fLRJ7BFVbckbYQBm00ncQo/Ov9ud2Q3Wx4G4F0="_x000D_
+    "value": "52"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "86qIm++a2redF+ZdiIBXLxcOYK9V7xRbMM44Mw96/bg="_x000D_
+    "value": "1000000052"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -13278,27 +13347,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "pYskvWI/xrLU5seEcvYIiSoEeMI7l+wrc2ehmpZHPRo="_x000D_
+    "value": "0000GB53XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "KFjc0QV9Pq5/fV94IWfiS2EVPAFVFFCmKM7nIlCfZSk="_x000D_
+    "value": "53"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "Z7IpblSosdabIUaxr8ZHAGCCDZfJXgjUP0hlzHVD6uw="_x000D_
+    "value": "1000000053"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -13362,27 +13431,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "PcCw63cazY81XL9kYA0sTN7x1vPOoLWon3aUfKeD3U8="_x000D_
+    "value": "0000GB54XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "L8o0bbZWGHECzoBqxzLgamLfDbsoKeURp3BVbTmOGm4="_x000D_
+    "value": "54"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "5n4KhXW5DBPXPJkTz0+FjBGy7t7gBC94qtpH5xUawBU="_x000D_
+    "value": "1000000054"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -13446,27 +13515,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "Oio4+L3V7+365Pe2tvBdo5Eu30dlmtKsj6EwcGgrJ6s="_x000D_
+    "value": "0000GB55XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "AtILvX45StWZmkzrq6yWGXMsNDpMrJlHDAPiO6K9wrw="_x000D_
+    "value": "55"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "CCXd5AKTRFBygVN7A027vVeKX8+9uB3gAjxbd4C3eCs="_x000D_
+    "value": "1000000055"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -13530,27 +13599,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "KKRuQZ/2OWL3L0zNxfDmbyBAlcgD6168Z92FAryiaC8="_x000D_
+    "value": "0000GB56XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "doi271JVWWLQCP/4lCI1gsSEUXzqfaSe5ngArcf8iGY="_x000D_
+    "value": "56"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "SAPMKcAGinweMBbTttjPb91ETQNGdDlrlK6fwIMITPc="_x000D_
+    "value": "1000000056"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -13614,27 +13683,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "3NgvYKvJd9h3Mpjbrw8P5Ko01KonKLFSsfamSNfVEWI="_x000D_
+    "value": "0000GB57XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "yDdknM5D8nKROOcswxUgcFesglmaWb5ydlpHfyLRSlQ="_x000D_
+    "value": "57"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "Mt6Lik2YezA+j9Fd2n3qKLclkqqJm65SD3foojgooVY="_x000D_
+    "value": "1000000057"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -13698,27 +13767,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "Sde5HrYlynjhykM+wwmQWZvnMKlxvPlF+RPdPa++mvU="_x000D_
+    "value": "0000GB58XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "YgjvD3dQwRFUjPkLbqHQ0KZva/9A2+8Hy0XsQ2Jjx9Y="_x000D_
+    "value": "58"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "0W5Cl5MAyLpGu3chsyDiMb080K+D3clQrWmu0qG5qm0="_x000D_
+    "value": "1000000058"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -13782,27 +13851,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "KFIuMxGjmyrnCcW83F2St07KuqEA2k5xaGfeae6ZgMU="_x000D_
+    "value": "0000GB59XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "Ph6Wfpt5PpCPjq6Dx026m8zM5qVTW0tGK9mZRTe/4Vw="_x000D_
+    "value": "59"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "x6bUnwBC0CRZ4R1ISrFYCr1NXRW98UflAZ8Ykwu35BQ="_x000D_
+    "value": "1000000059"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -13866,27 +13935,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "UIemNhYHM2oCvraILB+oJ1jWxaXg9aAHh1f68HXgUVc="_x000D_
+    "value": "0000GB60XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "OfqewZDu57b03/EQDWND4QkY0ETHXqyPnpollhc/gMk="_x000D_
+    "value": "60"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "noERuNOWoyVhw3ejNXqtCACmSm1PWF2j4EMlo7AWvrs="_x000D_
+    "value": "1000000060"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -13950,27 +14019,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "n2GUxI3Uy+4GgFicruLQyUfxkPwUdU1oKzHRv0y0czY="_x000D_
+    "value": "0000GB61XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "0Cn6OpXhdKGZNIV/U165Qn2WchijbqAUtwrXBLxsjRw="_x000D_
+    "value": "61"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "ncGnNPRBSap6Ka2pzKC0KKFQf0nQiTdmP2vcWb17XzY="_x000D_
+    "value": "1000000061"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -14034,27 +14103,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "xthxxYnMrbVxtDJ/EVWxNjIV740s6o3/5lXJ/jLjb4s="_x000D_
+    "value": "0000GB62XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "gbigP5foeHxT/hqGvaBCtvDemw7JwJNX4QfJm6TWlIo="_x000D_
+    "value": "62"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "NmoSchnGVpCdZJUvcioFeK1PYdmEXOaDhpVe/Yzdp0E="_x000D_
+    "value": "1000000062"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -14118,27 +14187,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "zqoLATDj1DcjKePkHA6f/LKzcYtjHXglvsnpH4j/Kp0="_x000D_
+    "value": "0000GB63XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "2k6ipVBvJpPq4ZDZNgofMXk8mKGtreUdk1M6b1IKzhw="_x000D_
+    "value": "63"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "r3+HfwBaVk3yW4pMq/O1kwD3QxIAR/UsvQAfrms3GLo="_x000D_
+    "value": "1000000063"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -14202,27 +14271,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "HarWvoDdn5SKTIQJVdFQX3T/jhfFl0+tEN4VursPt5Q="_x000D_
+    "value": "0000GB64XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "potBLEKCVV8VVGz24fxCiTt+B/JxVXzrAhghCY3WbBs="_x000D_
+    "value": "64"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "vm7R15azJLq58iBqjuw1X1fP6Y2d/Zu9saTGDeQ+gWE="_x000D_
+    "value": "1000000064"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -14286,27 +14355,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "wYnhorTtw8IWwWKRcOth4sEcjOzeR3yq+xO55MzmIxs="_x000D_
+    "value": "0000GB65XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "EIyZW5U8ijVWEQPiAUz4KOtlSpnjEPh/q5TC9LfSoE8="_x000D_
+    "value": "65"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "kqsv5Ur7qEV3iYMpkbBetxFpV1ElTvgh4QeHvE4nhww="_x000D_
+    "value": "1000000065"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -14370,27 +14439,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "yA9LrAM6pIN7kcp5oOk4KVWyJngAcmDbrAgbh+2ORQY="_x000D_
+    "value": "0000GB66XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "OtqS8otM7aOFYuvwR8b/BUANTFcjUqEULu3+9n0h5mI="_x000D_
+    "value": "66"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "peUlhe+pjZ8lw4/uFLhcBKBvdiBXDAg8OZSwq5BJ2R0="_x000D_
+    "value": "1000000066"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -14454,27 +14523,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "BEyDm7W3d57VyL/n7LQrrH/grkQ/D4p8Uv0rFFRDXMM="_x000D_
+    "value": "0000GB67XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "SdGA7PVhMoGVcb852bezQlIqKsbSPBQY0zOCUb/kacg="_x000D_
+    "value": "67"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "Z65LOv3cWMGBgKe0x+k1FEC08VpdxmY6ajK/2b1zUOg="_x000D_
+    "value": "1000000067"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -14538,27 +14607,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "SXF7aY0UPN9IS4zWWqo1d9KSBXfBX+r6JC7FHJ6BZTE="_x000D_
+    "value": "0000GB68XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "ohhV2gjLEC0dIXxT3Fgko6eVwcGkTpcb8Bq52joqy78="_x000D_
+    "value": "68"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "5GnatV3tietYu+RNoNlLcivUGbKMIDLjLeiADwOxItQ="_x000D_
+    "value": "1000000068"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -14622,27 +14691,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "0qGARHXCXFdBXVcJIpwGVmZaQOTg5NXdAY7DyEXqrMA="_x000D_
+    "value": "0000GB69XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "x1y2auKNjrxu3tACwoqLoNBtOnjGtcv5sq3gUfB3WsQ="_x000D_
+    "value": "69"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "iKfY6B7O+ZPLHH+SSSPCBa+8QV8aIdrUazw6BA38C/s="_x000D_
+    "value": "1000000069"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -14706,27 +14775,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "jOI3pZXhRQ5k4303EOKyTT9RigHI3OFACgMgiGEPjbs="_x000D_
+    "value": "0000GB70XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "/1oa4BKvpdTIicUK1Ceq9UXTGk+sBP/BxNA9QDukJQo="_x000D_
+    "value": "70"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "Mc1HVQbzCfrqKj3/RhhNZcX0s3CAcRNpDzoXhaUfGgk="_x000D_
+    "value": "1000000070"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -14790,27 +14859,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "TqEaVGWtHj2pavjpARtEIBC+d6aHCHXt+mZ4sytjJQY="_x000D_
+    "value": "0000GB71XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "fyJT1+IosioIvaHwnFFvb+rYHfZTbrAvqZGjS7ONm+g="_x000D_
+    "value": "71"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "VFJ+clDEycIVqJOpDvGnpTsYxcgB6N3YM95DDevfuAo="_x000D_
+    "value": "1000000071"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -14874,27 +14943,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "wBjm+WVeCwmIcgmcUPLZUcS/828Ne11DGOunqs4U8zk="_x000D_
+    "value": "0000GB72XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "hyJhYgQhft2znn35aeBpiu2OWZumLtLeHOSbA63g/t4="_x000D_
+    "value": "72"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "GXcaxFwyz9W2YqJyS9YZTsiVpgX7+Gy+ePC29wRm5Mo="_x000D_
+    "value": "1000000072"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -14958,27 +15027,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "NBzzD0FJKQIVmqtr1qfeTbXEJH3vM71PkpliZkR9HHI="_x000D_
+    "value": "0000GB73XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "lgYekvWOS9ze5z3zYYP+OsZHR8gcJvbIOq2o0qq7GGQ="_x000D_
+    "value": "73"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "Ze3ClocFIYXMFTPKBvQd9Jkm7qkrtegbOcU22wT1CN4="_x000D_
+    "value": "1000000073"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -15042,27 +15111,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "NRV1Yy56OOielmrYhqPiudWUXorGJU8MhVhywTuoTiM="_x000D_
+    "value": "0000GB74XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "62JNvlbrZiCuYggMEKJzyrc66OypirF7cxRGoxx5OTo="_x000D_
+    "value": "74"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "MQgDzhJAjSItz+zCZmmCPCbR3U3VhZ3cKocDE+4EGZE="_x000D_
+    "value": "1000000074"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -15126,27 +15195,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "CnGYY7M6bC4X+ntlq2ovw58EjWqgrCfOiddzbfsJuBg="_x000D_
+    "value": "0000GB75XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "82nLifxifmaJhwB9Eh7R6s3AHbnij4uybzWLfYxPCKw="_x000D_
+    "value": "75"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "bJZxhRQYXEPuyDJxtVhacfYXrtSXb9ynhmvbh5YPDi8="_x000D_
+    "value": "1000000075"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -15210,27 +15279,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "QsDHMyVotyQ4tFuWFgXNijKJmx9miqLotPzO94ulfTg="_x000D_
+    "value": "0000GB76XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "9076vvEuphnjC3m93vic/6ndpJR2FoHKhiz/KHGoWYA="_x000D_
+    "value": "76"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "WOzSiVQTPpp61PVJJrsmh84w3K3tD/EOwr/GaWnj6c4="_x000D_
+    "value": "1000000076"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -15294,27 +15363,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "8J/5NUEAAevLAGikzc8564yOwyA/fkeFYmqEo3/7U4g="_x000D_
+    "value": "0000GB77XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "qIp5AstO9pe6C2dZxQ6MECl/9Y+UIkPeGbmEhBv+H3M="_x000D_
+    "value": "77"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "tI+ChtnXXUKQ+mdGSoYJ6e+cyxvkRmHffOEMIQmqzXA="_x000D_
+    "value": "1000000077"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -15378,27 +15447,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "N4mEsIbb540Z6RMk2mfCDLt4t0fWhzu4lMJl8WE9WBM="_x000D_
+    "value": "0000GB78XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "NJxBIBti24URkmZcUEs1D/mMa0X7YqiiFh94tlNNjek="_x000D_
+    "value": "78"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "ed4XMmgGiI6miDnOP36xbGQshONfJqgkcQBDpzVyj4I="_x000D_
+    "value": "1000000078"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -15462,27 +15531,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "j1Nukf82JefGSGU+bn3VPSfBShCxkfj+/tZ+3fJDXEs="_x000D_
+    "value": "0000GB79XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "mKOrfDQOigM+eze275QodRWBdgr2e7qyueBdSWSoh0o="_x000D_
+    "value": "79"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "C0jq14QaxFLVm14sijYVVNykZtc42yBYP9Ljbkp5YGg="_x000D_
+    "value": "1000000079"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -15546,27 +15615,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "RQRNyzlRFpweXBM8ySKZzx8NAYKdLfvFiJ/CMCAF98g="_x000D_
+    "value": "0000GB80XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "SESaFKT/fXm7ehtvPUiOujl8Nu8lY0wRG0m682JRGvw="_x000D_
+    "value": "80"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "BuuUsF8MVx2H3aSQoOhQJZ81gE96g7iFjKVH7NrjiWs="_x000D_
+    "value": "1000000080"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -15630,27 +15699,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "6OHvnQzC39zJL4MdLCCp9xuQIo3MO8JJg+unA/nm+i0="_x000D_
+    "value": "0000GB81XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "UxbKHF3cqObOzPzljzuFQOVA7iL2GA+4lJKQQFGz1TE="_x000D_
+    "value": "81"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "7hYSsiq6MCuTYbjKc9KEfHL/xAmwOgRWlgWoTL/HOR0="_x000D_
+    "value": "1000000081"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -15714,27 +15783,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "/pyeKILbNloSx7j7F8/JlNjhOsXv67u4mSup/8zi7RI="_x000D_
+    "value": "0000GB82XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "pG43Yy+mylGhP+OaVns8I7KML0fYr2vpvWPgMOIUujg="_x000D_
+    "value": "82"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "kTTcc3FlIGEcch6wbhqvSveKeYJN8YzG2OSvz3gYahM="_x000D_
+    "value": "1000000082"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -15798,27 +15867,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "zIfmFDefBgRAEzVUTEUq2WSCW6Ca6X4UTvp3q/kfi3s="_x000D_
+    "value": "0000GB83XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "u7llqwyA1lOM8hhLq60qVkoBA3ZxIBK9B7CvktzTCX0="_x000D_
+    "value": "83"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "qJwZHgkC73j/0w/DPZwdlnzoCf1TH5Y1hi+FPmcuOTw="_x000D_
+    "value": "1000000083"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -15882,27 +15951,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "GGipolrIi3YB2/PDm4mtOGMpZsukvE9LpDpy5PVNtHQ="_x000D_
+    "value": "0000GB84XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "RMgDHLA2pzUNi5uGA69mKkuc29L5bo1d5a9DXJw12mk="_x000D_
+    "value": "84"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "9hxmFVk/QKzzKcsPcInZI2XCJjG0XEAUrpgcJewI0Lc="_x000D_
+    "value": "1000000084"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -15966,27 +16035,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "9QKJ2xFJIJcwLO/eSEThhn0FccvwluPiJhgMiKCyNr8="_x000D_
+    "value": "0000GB85XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "tJRMb/CNxvQ9ounIJGabfZJ90fqXb63HtFaIH1G/XMw="_x000D_
+    "value": "85"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "q6uN1beSX7L30saTENLwVkZvSSsjF2WAHaHwWkwPU2c="_x000D_
+    "value": "1000000085"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -16050,27 +16119,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "CljArbboEy0SpzmUsHeL03dYyM2lqmoBdT8MXEY6AOE="_x000D_
+    "value": "0000GB86XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "Q0ybWuUUZGu9kbUAMspXnv7I8ivwtKrBLmWZfEGODdY="_x000D_
+    "value": "86"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "JC0QA35u2y4lNRdy1J5UQDPQ0s6kyS4QLx0gBQ9qov4="_x000D_
+    "value": "1000000086"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -16134,27 +16203,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "dpVH2b2n9CanPH0OTmpz+DjpvFK9RU1AlVGpZdwMMBg="_x000D_
+    "value": "0000GB87XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "vdLTrzpaEhNJfU8fe/zaiYJ0/py1QBu8AZCIVmRwj8I="_x000D_
+    "value": "87"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "yb+EQWwA1CMQxEqQZsd1sJ8yhnFhJU9rh9ssafyBemU="_x000D_
+    "value": "1000000087"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -16218,27 +16287,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "RNYzcNbJTIOof2xwHx+9Ihf4xHF0dq2eC+37j440Gx0="_x000D_
+    "value": "0000GB88XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "i5QL5/t4qqa2Vn3Xo5h5lpR0YN8cZo5pjrksp35CU0k="_x000D_
+    "value": "88"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "SbGdxmLiOT9iq5EPNuf2WL8ji0gDC1b9ahqVFcebIlg="_x000D_
+    "value": "1000000088"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -16302,27 +16371,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "TiSF1JrRtbuDaLxHpONW5xXMeQZrasdQuI/OuhzvtLg="_x000D_
+    "value": "0000GB89XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "zXC+oCP3UqBWSrtu0I1CwUQPLjPimRTlXgvhWV4k9Fo="_x000D_
+    "value": "89"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "5SyQcXFTL3x+1CKTs/zX+T5uQuUYm4b2q2iVFCRjMNg="_x000D_
+    "value": "1000000089"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -16386,27 +16455,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "dyPLB3lz7tBTw8fTqXAH+MuY4uFSoNJEHaojHHsAyJI="_x000D_
+    "value": "0000GB90XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "afWcJztuZprDKm3V4bLLYzM9iwBPlpZEeu4tQizmN2M="_x000D_
+    "value": "90"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "MGpk3/S9UHby/Yxpx1BWSf5VD2a3HR4la3yhFBZPFrI="_x000D_
+    "value": "1000000090"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -16470,27 +16539,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "Ds1nyJtoLbGMskpD0DxH6NNwyJeZ8HAiQ4Mo5mLdH2s="_x000D_
+    "value": "0000GB91XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "HaUbjY/5j2pI+Arnn+PKbCbhq7e30SUlklXW0rh16gg="_x000D_
+    "value": "91"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "gVdqx3WJXj4JCaheUZR/l5HDLqWNJZQBBJTqdbfwfi4="_x000D_
+    "value": "1000000091"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -16554,27 +16623,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "Vxrc/aWIq276QvIJ9XCmHenNi5cF1pqmezylFeWrOvI="_x000D_
+    "value": "0000GB92XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "gkFklgn4jM0qClsjOgelOOwxP/at9pWqRKlp28o59n0="_x000D_
+    "value": "92"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "6uVGWdDKphc8lupM58N6vVPASzfauq+Gy0fnD4b6Y+8="_x000D_
+    "value": "1000000092"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -16638,27 +16707,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "Sb+XJcFzsIw+OyIM78+S69lkf4Mmu9fyOaNw8ayraLE="_x000D_
+    "value": "0000GB93XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "bkABhxwM8nx2NO8dxHhAj2QkEP06RE4qiOMB9cSjWk0="_x000D_
+    "value": "93"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "sA2v7OaSzYoJK2xqOVu1tl8HMNGHWcq0oaC/giQjui8="_x000D_
+    "value": "1000000093"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -16722,27 +16791,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "OFq5ompZZ+O89dumMKtmSs6INc/BhFO9luPB3aDRNSo="_x000D_
+    "value": "0000GB94XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "49bE1FmeAIgjhMqYHuKH7ZYfpfOCjirbXp6okKsNBSU="_x000D_
+    "value": "94"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "L5RwzzEVyNSME+o86zXYcMyy266wQbl0lS19wilUb8o="_x000D_
+    "value": "1000000094"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -16806,27 +16875,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "EGAAXI/rbIpmjVjuydYj2SDjdelv6kPiWs3EVUKvIEw="_x000D_
+    "value": "0000GB95XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "rUj/mUFbLwB9w1t+tVP9HrNev6Ly8wis2UiO64b3H6g="_x000D_
+    "value": "95"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "WHTWAHVyncYeH0cNreDgw9TgAGt//mYjuhIVW7NAkRA="_x000D_
+    "value": "1000000095"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -16890,27 +16959,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "DbdZky8wKGglcwY7cJB1We3JjeONFW9pFX1QNqz1ROw="_x000D_
+    "value": "0000GB96XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "exonj1q+jp2pB/ycKd/UMtYNx24XsPq6tlnSpQi8ZcQ="_x000D_
+    "value": "96"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "3IXmmWdG82/eIdP/cLZpB9SS+s1Vo32SGwolcZwZoyo="_x000D_
+    "value": "1000000096"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -16974,27 +17043,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "lR4NYrtoOunM9Lh/O6dhPAEyJ2Cn0ui+o6tmWJFfVOA="_x000D_
+    "value": "0000GB97XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "Uv6KxqgZzACWuOjmujQCdpZo1k8PCo4LfEyCZI7FHuU="_x000D_
+    "value": "NFC-"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "1tgkq7pK/egRKccd6nW4EA6WM42l9BbS9pCI8ZYMsJE="_x000D_
+    "value": "97"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "uaY4WHuiJHNf6E7bKKnuceP0l4D2tA6lF7SwfZcPeoU="_x000D_
+    "value": "1000000097"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -17058,27 +17127,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "BDzNZO/wDxt1RFHiV/9Lmbo7HtQuiS5fR9jhAgccOIY="_x000D_
+    "value": "0000GB98XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "JraMgc2Mk1taQgbQN88q0vyOp42WLe+5Pf+/a1BZvXo="_x000D_
+    "value": "NFC+"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "KdsMZ4Lb1QAFWe9NnpU+MA4rR57tJtiH7z+SuSHAamc="_x000D_
+    "value": "98"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "VrTlkTFcgvEF5EHub4y3sRhsN+2GAuUINiCa5GiKago="_x000D_
+    "value": "1000000098"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -17142,27 +17211,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "MWSM6zMvxBc6ecJ2tWcCx9ueLM5P/q3ZyBgxQrpBy2g="_x000D_
+    "value": "0000GB99XXX"_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "/LzxZZCN0YqeSff/J4EBdtuOn2O0NSITdBZkJFIk+Ko="_x000D_
+    "value": false_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "jB8QRiGd3SFqAj95I1bd8Sf843KnLsm0zayYnuWwtFU="_x000D_
+    "value": "99"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "WDyJ4KY1OMSC1yb00cih3zqRcMSeMYPkk2J3iIhxMCg="_x000D_
+    "value": "1000000099"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -17199,7 +17268,7 @@
   <dimension ref="B2:M104"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17211,7 +17280,9 @@
     <col min="5" max="5" width="2.59765625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="2.59765625" customWidth="1"/>
-    <col min="8" max="13" width="17.1328125" customWidth="1"/>
+    <col min="8" max="10" width="17.1328125" customWidth="1"/>
+    <col min="11" max="11" width="16.59765625" customWidth="1"/>
+    <col min="12" max="13" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.45">
@@ -17275,7 +17346,7 @@
       </c>
       <c r="D5" s="22" t="str" cm="1">
         <f t="array" ref="D5">_xll.MADRec.RtPut(B5,VLOOKUP(B5,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:16</v>
+        <v>Executed @14/11/2018 16:47:46</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>11</v>
@@ -17288,56 +17359,59 @@
     {_x000D_
       "name": "BIC",_x000D_
       "split": [_x000D_
-        2_x000D_
+        5,_x000D_
+        1_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "1WlUDONHZRGjGMyteYzO96lRCig8K2wpUtmOmaUkn1c="_x000D_
+      "total": 6,_x000D_
+      "group": 5,_x000D_
+      "contribution": "0000GB00XXX"_x000D_
     },_x000D_
     {_x000D_
       "name": "EMIR",_x000D_
       "split": [_x000D_
-        2_x000D_
+        1,_x000D_
+        5_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+      "total": 6,_x000D_
+      "group": 5,_x000D_
+      "contribution": "FC"_x000D_
     },_x000D_
     {_x000D_
       "name": "GK",_x000D_
       "split": [_x000D_
-        2_x000D_
+        6_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "a4ayc/80/OGda4BO/1o/V0etpOqiLx1JwB5S3beHW0s="_x000D_
+      "total": 6,_x000D_
+      "group": 6,_x000D_
+      "contribution": "1"_x000D_
     },_x000D_
     {_x000D_
       "name": "IF",_x000D_
       "split": [_x000D_
-        2_x000D_
+        1,_x000D_
+        5_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+      "total": 6,_x000D_
+      "group": 5,_x000D_
+      "contribution": true_x000D_
     },_x000D_
     {_x000D_
       "name": "NACE",_x000D_
       "split": [_x000D_
-        2_x000D_
+        6_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+      "total": 6,_x000D_
+      "group": 6,_x000D_
+      "contribution": "1.11"_x000D_
     },_x000D_
     {_x000D_
       "name": "PERMID",_x000D_
       "split": [_x000D_
-        2_x000D_
+        6_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "UqXUoHHYLK6ocymGjSL2uDkKw9Inxv3g1FJeaVEOxHk="_x000D_
+      "total": 6,_x000D_
+      "group": 6,_x000D_
+      "contribution": "1000000000"_x000D_
     }_x000D_
   ]_x000D_
 }</v>
@@ -17347,11 +17421,11 @@
       </c>
       <c r="H5" t="str">
         <f>IF(LEFT($F5,1)="{",_xlfn.SINGLE(INDEX(_xll.MADRec.Extract.ToPieChartData($F5,H$4),8,0)),"")</f>
-        <v>full consensus</v>
+        <v>split consensus with majority</v>
       </c>
       <c r="I5" t="str">
         <f>IF(LEFT($F5,1)="{",_xlfn.SINGLE(INDEX(_xll.MADRec.Extract.ToPieChartData($F5,I$4),8,0)),"")</f>
-        <v>full consensus</v>
+        <v>split consensus with majority</v>
       </c>
       <c r="J5" t="str">
         <f>IF(LEFT($F5,1)="{",_xlfn.SINGLE(INDEX(_xll.MADRec.Extract.ToPieChartData($F5,J$4),8,0)),"")</f>
@@ -17359,7 +17433,7 @@
       </c>
       <c r="K5" t="str">
         <f>IF(LEFT($F5,1)="{",_xlfn.SINGLE(INDEX(_xll.MADRec.Extract.ToPieChartData($F5,K$4),8,0)),"")</f>
-        <v>full consensus</v>
+        <v>split consensus with majority</v>
       </c>
       <c r="L5" t="str">
         <f>IF(LEFT($F5,1)="{",_xlfn.SINGLE(INDEX(_xll.MADRec.Extract.ToPieChartData($F5,L$4),8,0)),"")</f>
@@ -17380,7 +17454,7 @@
       </c>
       <c r="D6" s="22" t="str" cm="1">
         <f t="array" ref="D6">_xll.MADRec.RtPut(B6,VLOOKUP(B6,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:48</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>11</v>
@@ -17427,7 +17501,7 @@
       </c>
       <c r="D7" s="22" t="str" cm="1">
         <f t="array" ref="D7">_xll.MADRec.RtPut(B7,VLOOKUP(B7,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:12</v>
+        <v>Executed @14/11/2018 16:47:45</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>11</v>
@@ -17474,7 +17548,7 @@
       </c>
       <c r="D8" s="22" t="str" cm="1">
         <f t="array" ref="D8">_xll.MADRec.RtPut(B8,VLOOKUP(B8,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:48</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>11</v>
@@ -17521,7 +17595,7 @@
       </c>
       <c r="D9" s="22" t="str" cm="1">
         <f t="array" ref="D9">_xll.MADRec.RtPut(B9,VLOOKUP(B9,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:12</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>11</v>
@@ -17568,7 +17642,7 @@
       </c>
       <c r="D10" s="22" t="str" cm="1">
         <f t="array" ref="D10">_xll.MADRec.RtPut(B10,VLOOKUP(B10,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:50</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>11</v>
@@ -17615,7 +17689,7 @@
       </c>
       <c r="D11" s="22" t="str" cm="1">
         <f t="array" ref="D11">_xll.MADRec.RtPut(B11,VLOOKUP(B11,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:12</v>
+        <v>Executed @14/11/2018 16:47:49</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>11</v>
@@ -17662,7 +17736,7 @@
       </c>
       <c r="D12" s="22" t="str" cm="1">
         <f t="array" ref="D12">_xll.MADRec.RtPut(B12,VLOOKUP(B12,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:46</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>11</v>
@@ -17709,7 +17783,7 @@
       </c>
       <c r="D13" s="22" t="str" cm="1">
         <f t="array" ref="D13">_xll.MADRec.RtPut(B13,VLOOKUP(B13,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:12</v>
+        <v>Executed @14/11/2018 16:47:48</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>11</v>
@@ -17756,7 +17830,7 @@
       </c>
       <c r="D14" s="22" t="str" cm="1">
         <f t="array" ref="D14">_xll.MADRec.RtPut(B14,VLOOKUP(B14,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:51</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>11</v>
@@ -17803,7 +17877,7 @@
       </c>
       <c r="D15" s="22" t="str" cm="1">
         <f t="array" ref="D15">_xll.MADRec.RtPut(B15,VLOOKUP(B15,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:12</v>
+        <v>Executed @14/11/2018 16:47:48</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>11</v>
@@ -17850,7 +17924,7 @@
       </c>
       <c r="D16" s="22" t="str" cm="1">
         <f t="array" ref="D16">_xll.MADRec.RtPut(B16,VLOOKUP(B16,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:50</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>11</v>
@@ -17897,7 +17971,7 @@
       </c>
       <c r="D17" s="22" t="str" cm="1">
         <f t="array" ref="D17">_xll.MADRec.RtPut(B17,VLOOKUP(B17,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:12</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>11</v>
@@ -17944,7 +18018,7 @@
       </c>
       <c r="D18" s="22" t="str" cm="1">
         <f t="array" ref="D18">_xll.MADRec.RtPut(B18,VLOOKUP(B18,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:47</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>11</v>
@@ -17991,7 +18065,7 @@
       </c>
       <c r="D19" s="22" t="str" cm="1">
         <f t="array" ref="D19">_xll.MADRec.RtPut(B19,VLOOKUP(B19,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:12</v>
+        <v>Executed @14/11/2018 16:47:50</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>11</v>
@@ -18038,7 +18112,7 @@
       </c>
       <c r="D20" s="22" t="str" cm="1">
         <f t="array" ref="D20">_xll.MADRec.RtPut(B20,VLOOKUP(B20,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>11</v>
@@ -18085,7 +18159,7 @@
       </c>
       <c r="D21" s="22" t="str" cm="1">
         <f t="array" ref="D21">_xll.MADRec.RtPut(B21,VLOOKUP(B21,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>11</v>
@@ -18132,7 +18206,7 @@
       </c>
       <c r="D22" s="22" t="str" cm="1">
         <f t="array" ref="D22">_xll.MADRec.RtPut(B22,VLOOKUP(B22,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:10</v>
+        <v>Executed @14/11/2018 16:47:50</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>11</v>
@@ -18179,7 +18253,7 @@
       </c>
       <c r="D23" s="22" t="str" cm="1">
         <f t="array" ref="D23">_xll.MADRec.RtPut(B23,VLOOKUP(B23,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Executed @14/11/2018 16:47:49</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>11</v>
@@ -18226,7 +18300,7 @@
       </c>
       <c r="D24" s="22" t="str" cm="1">
         <f t="array" ref="D24">_xll.MADRec.RtPut(B24,VLOOKUP(B24,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:11</v>
+        <v>Executed @14/11/2018 16:47:46</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>11</v>
@@ -18273,7 +18347,7 @@
       </c>
       <c r="D25" s="22" t="str" cm="1">
         <f t="array" ref="D25">_xll.MADRec.RtPut(B25,VLOOKUP(B25,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:12</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>11</v>
@@ -18320,7 +18394,7 @@
       </c>
       <c r="D26" s="22" t="str" cm="1">
         <f t="array" ref="D26">_xll.MADRec.RtPut(B26,VLOOKUP(B26,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:10</v>
+        <v>Executed @14/11/2018 16:47:49</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>11</v>
@@ -18367,7 +18441,7 @@
       </c>
       <c r="D27" s="22" t="str" cm="1">
         <f t="array" ref="D27">_xll.MADRec.RtPut(B27,VLOOKUP(B27,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:11</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>11</v>
@@ -18414,7 +18488,7 @@
       </c>
       <c r="D28" s="22" t="str" cm="1">
         <f t="array" ref="D28">_xll.MADRec.RtPut(B28,VLOOKUP(B28,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:49</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>11</v>
@@ -18461,7 +18535,7 @@
       </c>
       <c r="D29" s="22" t="str" cm="1">
         <f t="array" ref="D29">_xll.MADRec.RtPut(B29,VLOOKUP(B29,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:16</v>
+        <v>Executed @14/11/2018 16:47:49</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>11</v>
@@ -18508,7 +18582,7 @@
       </c>
       <c r="D30" s="22" t="str" cm="1">
         <f t="array" ref="D30">_xll.MADRec.RtPut(B30,VLOOKUP(B30,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>11</v>
@@ -18555,7 +18629,7 @@
       </c>
       <c r="D31" s="22" t="str" cm="1">
         <f t="array" ref="D31">_xll.MADRec.RtPut(B31,VLOOKUP(B31,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Executed @14/11/2018 16:47:51</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>11</v>
@@ -18602,7 +18676,7 @@
       </c>
       <c r="D32" s="22" t="str" cm="1">
         <f t="array" ref="D32">_xll.MADRec.RtPut(B32,VLOOKUP(B32,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Executed @14/11/2018 16:47:50</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>11</v>
@@ -18649,7 +18723,7 @@
       </c>
       <c r="D33" s="22" t="str" cm="1">
         <f t="array" ref="D33">_xll.MADRec.RtPut(B33,VLOOKUP(B33,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:12</v>
+        <v>Executed @14/11/2018 16:47:47</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>11</v>
@@ -18696,7 +18770,7 @@
       </c>
       <c r="D34" s="22" t="str" cm="1">
         <f t="array" ref="D34">_xll.MADRec.RtPut(B34,VLOOKUP(B34,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:11</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E34" s="22" t="s">
         <v>11</v>
@@ -18743,7 +18817,7 @@
       </c>
       <c r="D35" s="22" t="str" cm="1">
         <f t="array" ref="D35">_xll.MADRec.RtPut(B35,VLOOKUP(B35,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:10</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>11</v>
@@ -18790,7 +18864,7 @@
       </c>
       <c r="D36" s="22" t="str" cm="1">
         <f t="array" ref="D36">_xll.MADRec.RtPut(B36,VLOOKUP(B36,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:50</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>11</v>
@@ -18837,7 +18911,7 @@
       </c>
       <c r="D37" s="22" t="str" cm="1">
         <f t="array" ref="D37">_xll.MADRec.RtPut(B37,VLOOKUP(B37,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:49</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>11</v>
@@ -18884,7 +18958,7 @@
       </c>
       <c r="D38" s="22" t="str" cm="1">
         <f t="array" ref="D38">_xll.MADRec.RtPut(B38,VLOOKUP(B38,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Executed @14/11/2018 16:47:47</v>
       </c>
       <c r="E38" s="22" t="s">
         <v>11</v>
@@ -18931,7 +19005,7 @@
       </c>
       <c r="D39" s="22" t="str" cm="1">
         <f t="array" ref="D39">_xll.MADRec.RtPut(B39,VLOOKUP(B39,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Executed @14/11/2018 16:47:49</v>
       </c>
       <c r="E39" s="22" t="s">
         <v>11</v>
@@ -18978,7 +19052,7 @@
       </c>
       <c r="D40" s="22" t="str" cm="1">
         <f t="array" ref="D40">_xll.MADRec.RtPut(B40,VLOOKUP(B40,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:51</v>
       </c>
       <c r="E40" s="22" t="s">
         <v>11</v>
@@ -19025,7 +19099,7 @@
       </c>
       <c r="D41" s="22" t="str" cm="1">
         <f t="array" ref="D41">_xll.MADRec.RtPut(B41,VLOOKUP(B41,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Executed @14/11/2018 16:47:50</v>
       </c>
       <c r="E41" s="22" t="s">
         <v>11</v>
@@ -19072,7 +19146,7 @@
       </c>
       <c r="D42" s="22" t="str" cm="1">
         <f t="array" ref="D42">_xll.MADRec.RtPut(B42,VLOOKUP(B42,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:11</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>11</v>
@@ -19119,7 +19193,7 @@
       </c>
       <c r="D43" s="22" t="str" cm="1">
         <f t="array" ref="D43">_xll.MADRec.RtPut(B43,VLOOKUP(B43,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:16</v>
+        <v>Executed @14/11/2018 16:47:48</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>11</v>
@@ -19166,7 +19240,7 @@
       </c>
       <c r="D44" s="22" t="str" cm="1">
         <f t="array" ref="D44">_xll.MADRec.RtPut(B44,VLOOKUP(B44,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Executed @14/11/2018 16:47:48</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>11</v>
@@ -19213,7 +19287,7 @@
       </c>
       <c r="D45" s="22" t="str" cm="1">
         <f t="array" ref="D45">_xll.MADRec.RtPut(B45,VLOOKUP(B45,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Executed @14/11/2018 16:47:46</v>
       </c>
       <c r="E45" s="22" t="s">
         <v>11</v>
@@ -19260,7 +19334,7 @@
       </c>
       <c r="D46" s="22" t="str" cm="1">
         <f t="array" ref="D46">_xll.MADRec.RtPut(B46,VLOOKUP(B46,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:12</v>
+        <v>Executed @14/11/2018 16:47:51</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>11</v>
@@ -19307,7 +19381,7 @@
       </c>
       <c r="D47" s="22" t="str" cm="1">
         <f t="array" ref="D47">_xll.MADRec.RtPut(B47,VLOOKUP(B47,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Executed @14/11/2018 16:47:46</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>11</v>
@@ -19354,7 +19428,7 @@
       </c>
       <c r="D48" s="22" t="str" cm="1">
         <f t="array" ref="D48">_xll.MADRec.RtPut(B48,VLOOKUP(B48,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:10</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E48" s="22" t="s">
         <v>11</v>
@@ -19401,7 +19475,7 @@
       </c>
       <c r="D49" s="22" t="str" cm="1">
         <f t="array" ref="D49">_xll.MADRec.RtPut(B49,VLOOKUP(B49,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:51</v>
       </c>
       <c r="E49" s="22" t="s">
         <v>11</v>
@@ -19448,7 +19522,7 @@
       </c>
       <c r="D50" s="22" t="str" cm="1">
         <f t="array" ref="D50">_xll.MADRec.RtPut(B50,VLOOKUP(B50,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E50" s="22" t="s">
         <v>11</v>
@@ -19495,7 +19569,7 @@
       </c>
       <c r="D51" s="22" t="str" cm="1">
         <f t="array" ref="D51">_xll.MADRec.RtPut(B51,VLOOKUP(B51,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:16</v>
+        <v>Executed @14/11/2018 16:47:46</v>
       </c>
       <c r="E51" s="22" t="s">
         <v>11</v>
@@ -19542,7 +19616,7 @@
       </c>
       <c r="D52" s="22" t="str" cm="1">
         <f t="array" ref="D52">_xll.MADRec.RtPut(B52,VLOOKUP(B52,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Executed @14/11/2018 16:47:46</v>
       </c>
       <c r="E52" s="22" t="s">
         <v>11</v>
@@ -19589,7 +19663,7 @@
       </c>
       <c r="D53" s="22" t="str" cm="1">
         <f t="array" ref="D53">_xll.MADRec.RtPut(B53,VLOOKUP(B53,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:10</v>
+        <v>Executed @14/11/2018 16:47:50</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>11</v>
@@ -19636,7 +19710,7 @@
       </c>
       <c r="D54" s="22" t="str" cm="1">
         <f t="array" ref="D54">_xll.MADRec.RtPut(B54,VLOOKUP(B54,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:10</v>
+        <v>Executed @14/11/2018 16:47:48</v>
       </c>
       <c r="E54" s="22" t="s">
         <v>11</v>
@@ -19680,7 +19754,7 @@
       </c>
       <c r="D55" s="22" t="str" cm="1">
         <f t="array" ref="D55">_xll.MADRec.RtPut(B55,VLOOKUP(B55,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:51</v>
       </c>
       <c r="E55" s="22" t="s">
         <v>11</v>
@@ -19724,7 +19798,7 @@
       </c>
       <c r="D56" s="22" t="str" cm="1">
         <f t="array" ref="D56">_xll.MADRec.RtPut(B56,VLOOKUP(B56,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:47</v>
       </c>
       <c r="E56" s="22" t="s">
         <v>11</v>
@@ -19768,7 +19842,7 @@
       </c>
       <c r="D57" s="22" t="str" cm="1">
         <f t="array" ref="D57">_xll.MADRec.RtPut(B57,VLOOKUP(B57,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:16</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E57" s="22" t="s">
         <v>11</v>
@@ -19812,7 +19886,7 @@
       </c>
       <c r="D58" s="22" t="str" cm="1">
         <f t="array" ref="D58">_xll.MADRec.RtPut(B58,VLOOKUP(B58,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Executed @14/11/2018 16:47:48</v>
       </c>
       <c r="E58" s="22" t="s">
         <v>11</v>
@@ -19856,7 +19930,7 @@
       </c>
       <c r="D59" s="22" t="str" cm="1">
         <f t="array" ref="D59">_xll.MADRec.RtPut(B59,VLOOKUP(B59,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Executed @14/11/2018 16:47:50</v>
       </c>
       <c r="E59" s="22" t="s">
         <v>11</v>
@@ -19900,7 +19974,7 @@
       </c>
       <c r="D60" s="22" t="str" cm="1">
         <f t="array" ref="D60">_xll.MADRec.RtPut(B60,VLOOKUP(B60,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:16</v>
+        <v>Executed @14/11/2018 16:47:48</v>
       </c>
       <c r="E60" s="22" t="s">
         <v>11</v>
@@ -19944,7 +20018,7 @@
       </c>
       <c r="D61" s="22" t="str" cm="1">
         <f t="array" ref="D61">_xll.MADRec.RtPut(B61,VLOOKUP(B61,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Executed @14/11/2018 16:47:46</v>
       </c>
       <c r="E61" s="22" t="s">
         <v>11</v>
@@ -19988,7 +20062,7 @@
       </c>
       <c r="D62" s="22" t="str" cm="1">
         <f t="array" ref="D62">_xll.MADRec.RtPut(B62,VLOOKUP(B62,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:12</v>
+        <v>Executed @14/11/2018 16:47:48</v>
       </c>
       <c r="E62" s="22" t="s">
         <v>11</v>
@@ -20032,7 +20106,7 @@
       </c>
       <c r="D63" s="22" t="str" cm="1">
         <f t="array" ref="D63">_xll.MADRec.RtPut(B63,VLOOKUP(B63,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Executed @14/11/2018 16:47:48</v>
       </c>
       <c r="E63" s="22" t="s">
         <v>11</v>
@@ -20076,7 +20150,7 @@
       </c>
       <c r="D64" s="22" t="str" cm="1">
         <f t="array" ref="D64">_xll.MADRec.RtPut(B64,VLOOKUP(B64,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Executed @14/11/2018 16:47:47</v>
       </c>
       <c r="E64" s="22" t="s">
         <v>11</v>
@@ -20120,7 +20194,7 @@
       </c>
       <c r="D65" s="22" t="str" cm="1">
         <f t="array" ref="D65">_xll.MADRec.RtPut(B65,VLOOKUP(B65,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Executed @14/11/2018 16:47:50</v>
       </c>
       <c r="E65" s="22" t="s">
         <v>11</v>
@@ -20164,7 +20238,7 @@
       </c>
       <c r="D66" s="22" t="str" cm="1">
         <f t="array" ref="D66">_xll.MADRec.RtPut(B66,VLOOKUP(B66,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Executed @14/11/2018 16:47:49</v>
       </c>
       <c r="E66" s="22" t="s">
         <v>11</v>
@@ -20208,7 +20282,7 @@
       </c>
       <c r="D67" s="22" t="str" cm="1">
         <f t="array" ref="D67">_xll.MADRec.RtPut(B67,VLOOKUP(B67,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Executed @14/11/2018 16:47:47</v>
       </c>
       <c r="E67" s="22" t="s">
         <v>11</v>
@@ -20252,7 +20326,7 @@
       </c>
       <c r="D68" s="22" t="str" cm="1">
         <f t="array" ref="D68">_xll.MADRec.RtPut(B68,VLOOKUP(B68,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:12</v>
+        <v>Executed @14/11/2018 16:47:51</v>
       </c>
       <c r="E68" s="22" t="s">
         <v>11</v>
@@ -20296,7 +20370,7 @@
       </c>
       <c r="D69" s="22" t="str" cm="1">
         <f t="array" ref="D69">_xll.MADRec.RtPut(B69,VLOOKUP(B69,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:11</v>
+        <v>Executed @14/11/2018 16:47:51</v>
       </c>
       <c r="E69" s="22" t="s">
         <v>11</v>
@@ -20340,7 +20414,7 @@
       </c>
       <c r="D70" s="22" t="str" cm="1">
         <f t="array" ref="D70">_xll.MADRec.RtPut(B70,VLOOKUP(B70,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E70" s="22" t="s">
         <v>11</v>
@@ -20384,7 +20458,7 @@
       </c>
       <c r="D71" s="22" t="str" cm="1">
         <f t="array" ref="D71">_xll.MADRec.RtPut(B71,VLOOKUP(B71,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Executed @14/11/2018 16:47:48</v>
       </c>
       <c r="E71" s="22" t="s">
         <v>11</v>
@@ -20428,7 +20502,7 @@
       </c>
       <c r="D72" s="22" t="str" cm="1">
         <f t="array" ref="D72">_xll.MADRec.RtPut(B72,VLOOKUP(B72,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:12</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E72" s="22" t="s">
         <v>11</v>
@@ -20472,7 +20546,7 @@
       </c>
       <c r="D73" s="22" t="str" cm="1">
         <f t="array" ref="D73">_xll.MADRec.RtPut(B73,VLOOKUP(B73,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E73" s="22" t="s">
         <v>11</v>
@@ -20516,7 +20590,7 @@
       </c>
       <c r="D74" s="22" t="str" cm="1">
         <f t="array" ref="D74">_xll.MADRec.RtPut(B74,VLOOKUP(B74,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:16</v>
+        <v>Executed @14/11/2018 16:47:46</v>
       </c>
       <c r="E74" s="22" t="s">
         <v>11</v>
@@ -20560,7 +20634,7 @@
       </c>
       <c r="D75" s="22" t="str" cm="1">
         <f t="array" ref="D75">_xll.MADRec.RtPut(B75,VLOOKUP(B75,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Executed @14/11/2018 16:47:50</v>
       </c>
       <c r="E75" s="22" t="s">
         <v>11</v>
@@ -20604,7 +20678,7 @@
       </c>
       <c r="D76" s="22" t="str" cm="1">
         <f t="array" ref="D76">_xll.MADRec.RtPut(B76,VLOOKUP(B76,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E76" s="22" t="s">
         <v>11</v>
@@ -20648,7 +20722,7 @@
       </c>
       <c r="D77" s="22" t="str" cm="1">
         <f t="array" ref="D77">_xll.MADRec.RtPut(B77,VLOOKUP(B77,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:11</v>
+        <v>Executed @14/11/2018 16:47:51</v>
       </c>
       <c r="E77" s="22" t="s">
         <v>11</v>
@@ -20692,7 +20766,7 @@
       </c>
       <c r="D78" s="22" t="str" cm="1">
         <f t="array" ref="D78">_xll.MADRec.RtPut(B78,VLOOKUP(B78,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Executed @14/11/2018 16:47:47</v>
       </c>
       <c r="E78" s="22" t="s">
         <v>11</v>
@@ -20736,7 +20810,7 @@
       </c>
       <c r="D79" s="22" t="str" cm="1">
         <f t="array" ref="D79">_xll.MADRec.RtPut(B79,VLOOKUP(B79,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:11</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E79" s="22" t="s">
         <v>11</v>
@@ -20780,7 +20854,7 @@
       </c>
       <c r="D80" s="22" t="str" cm="1">
         <f t="array" ref="D80">_xll.MADRec.RtPut(B80,VLOOKUP(B80,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Executed @14/11/2018 16:47:51</v>
       </c>
       <c r="E80" s="22" t="s">
         <v>11</v>
@@ -20824,7 +20898,7 @@
       </c>
       <c r="D81" s="22" t="str" cm="1">
         <f t="array" ref="D81">_xll.MADRec.RtPut(B81,VLOOKUP(B81,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:11</v>
+        <v>Executed @14/11/2018 16:47:50</v>
       </c>
       <c r="E81" s="22" t="s">
         <v>11</v>
@@ -20868,7 +20942,7 @@
       </c>
       <c r="D82" s="22" t="str" cm="1">
         <f t="array" ref="D82">_xll.MADRec.RtPut(B82,VLOOKUP(B82,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:11</v>
+        <v>Executed @14/11/2018 16:47:47</v>
       </c>
       <c r="E82" s="22" t="s">
         <v>11</v>
@@ -20912,7 +20986,7 @@
       </c>
       <c r="D83" s="22" t="str" cm="1">
         <f t="array" ref="D83">_xll.MADRec.RtPut(B83,VLOOKUP(B83,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Executed @14/11/2018 16:47:50</v>
       </c>
       <c r="E83" s="22" t="s">
         <v>11</v>
@@ -20956,7 +21030,7 @@
       </c>
       <c r="D84" s="22" t="str" cm="1">
         <f t="array" ref="D84">_xll.MADRec.RtPut(B84,VLOOKUP(B84,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:15</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E84" s="22" t="s">
         <v>11</v>
@@ -21000,7 +21074,7 @@
       </c>
       <c r="D85" s="22" t="str" cm="1">
         <f t="array" ref="D85">_xll.MADRec.RtPut(B85,VLOOKUP(B85,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:12</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E85" s="22" t="s">
         <v>11</v>
@@ -21044,7 +21118,7 @@
       </c>
       <c r="D86" s="22" t="str" cm="1">
         <f t="array" ref="D86">_xll.MADRec.RtPut(B86,VLOOKUP(B86,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:11</v>
+        <v>Executed @14/11/2018 16:47:51</v>
       </c>
       <c r="E86" s="22" t="s">
         <v>11</v>
@@ -21088,7 +21162,7 @@
       </c>
       <c r="D87" s="22" t="str" cm="1">
         <f t="array" ref="D87">_xll.MADRec.RtPut(B87,VLOOKUP(B87,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E87" s="22" t="s">
         <v>11</v>
@@ -21132,7 +21206,7 @@
       </c>
       <c r="D88" s="22" t="str" cm="1">
         <f t="array" ref="D88">_xll.MADRec.RtPut(B88,VLOOKUP(B88,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:10</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E88" s="22" t="s">
         <v>11</v>
@@ -21176,7 +21250,7 @@
       </c>
       <c r="D89" s="22" t="str" cm="1">
         <f t="array" ref="D89">_xll.MADRec.RtPut(B89,VLOOKUP(B89,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Executed @14/11/2018 16:47:47</v>
       </c>
       <c r="E89" s="22" t="s">
         <v>11</v>
@@ -21220,7 +21294,7 @@
       </c>
       <c r="D90" s="22" t="str" cm="1">
         <f t="array" ref="D90">_xll.MADRec.RtPut(B90,VLOOKUP(B90,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E90" s="22" t="s">
         <v>11</v>
@@ -21264,7 +21338,7 @@
       </c>
       <c r="D91" s="22" t="str" cm="1">
         <f t="array" ref="D91">_xll.MADRec.RtPut(B91,VLOOKUP(B91,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Executed @14/11/2018 16:47:46</v>
       </c>
       <c r="E91" s="22" t="s">
         <v>11</v>
@@ -21308,7 +21382,7 @@
       </c>
       <c r="D92" s="22" t="str" cm="1">
         <f t="array" ref="D92">_xll.MADRec.RtPut(B92,VLOOKUP(B92,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:12</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E92" s="22" t="s">
         <v>11</v>
@@ -21352,7 +21426,7 @@
       </c>
       <c r="D93" s="22" t="str" cm="1">
         <f t="array" ref="D93">_xll.MADRec.RtPut(B93,VLOOKUP(B93,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Executed @14/11/2018 16:47:51</v>
       </c>
       <c r="E93" s="22" t="s">
         <v>11</v>
@@ -21396,7 +21470,7 @@
       </c>
       <c r="D94" s="22" t="str" cm="1">
         <f t="array" ref="D94">_xll.MADRec.RtPut(B94,VLOOKUP(B94,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:12</v>
+        <v>Executed @14/11/2018 16:47:49</v>
       </c>
       <c r="E94" s="22" t="s">
         <v>11</v>
@@ -21440,7 +21514,7 @@
       </c>
       <c r="D95" s="22" t="str" cm="1">
         <f t="array" ref="D95">_xll.MADRec.RtPut(B95,VLOOKUP(B95,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Executed @14/11/2018 16:47:47</v>
       </c>
       <c r="E95" s="22" t="s">
         <v>11</v>
@@ -21484,7 +21558,7 @@
       </c>
       <c r="D96" s="22" t="str" cm="1">
         <f t="array" ref="D96">_xll.MADRec.RtPut(B96,VLOOKUP(B96,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:11</v>
+        <v>Executed @14/11/2018 16:47:49</v>
       </c>
       <c r="E96" s="22" t="s">
         <v>11</v>
@@ -21528,7 +21602,7 @@
       </c>
       <c r="D97" s="22" t="str" cm="1">
         <f t="array" ref="D97">_xll.MADRec.RtPut(B97,VLOOKUP(B97,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Executed @14/11/2018 16:47:47</v>
       </c>
       <c r="E97" s="22" t="s">
         <v>11</v>
@@ -21572,7 +21646,7 @@
       </c>
       <c r="D98" s="22" t="str" cm="1">
         <f t="array" ref="D98">_xll.MADRec.RtPut(B98,VLOOKUP(B98,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:10</v>
+        <v>Executed @14/11/2018 16:47:49</v>
       </c>
       <c r="E98" s="22" t="s">
         <v>11</v>
@@ -21616,7 +21690,7 @@
       </c>
       <c r="D99" s="22" t="str" cm="1">
         <f t="array" ref="D99">_xll.MADRec.RtPut(B99,VLOOKUP(B99,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:14</v>
+        <v>Executed @14/11/2018 16:47:48</v>
       </c>
       <c r="E99" s="22" t="s">
         <v>11</v>
@@ -21660,7 +21734,7 @@
       </c>
       <c r="D100" s="22" t="str" cm="1">
         <f t="array" ref="D100">_xll.MADRec.RtPut(B100,VLOOKUP(B100,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:13</v>
+        <v>Executed @14/11/2018 16:47:49</v>
       </c>
       <c r="E100" s="22" t="s">
         <v>11</v>
@@ -21704,7 +21778,7 @@
       </c>
       <c r="D101" s="22" t="str" cm="1">
         <f t="array" ref="D101">_xll.MADRec.RtPut(B101,VLOOKUP(B101,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:16</v>
+        <v>Executed @14/11/2018 16:47:47</v>
       </c>
       <c r="E101" s="22" t="s">
         <v>11</v>
@@ -21748,7 +21822,7 @@
       </c>
       <c r="D102" s="22" t="str" cm="1">
         <f t="array" ref="D102">_xll.MADRec.RtPut(B102,VLOOKUP(B102,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:16</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E102" s="22" t="s">
         <v>11</v>
@@ -21792,7 +21866,7 @@
       </c>
       <c r="D103" s="22" t="str" cm="1">
         <f t="array" ref="D103">_xll.MADRec.RtPut(B103,VLOOKUP(B103,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:12</v>
+        <v>Executed @14/11/2018 16:47:49</v>
       </c>
       <c r="E103" s="22" t="s">
         <v>11</v>
@@ -21836,7 +21910,7 @@
       </c>
       <c r="D104" s="22" t="str" cm="1">
         <f t="array" ref="D104">_xll.MADRec.RtPut(B104,VLOOKUP(B104,'LEIs &amp; Verifications'!J:T,11,0),'LEIs &amp; Verifications'!$V$2)</f>
-        <v>Executed @12/11/2018 13:02:11</v>
+        <v>Committed @14/11/2018 16:47:46</v>
       </c>
       <c r="E104" s="22" t="s">
         <v>11</v>
@@ -21956,134 +22030,134 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
-        <v>1WlUDONHZRGjGMyteYzO96lRCig8K2wpUtmOmaUkn1c=</v>
+        <v>0000GB00XXX</v>
       </c>
       <c r="B3" t="str">
-        <v>tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k=</v>
+        <v>FC</v>
       </c>
       <c r="C3" t="str">
-        <v>a4ayc/80/OGda4BO/1o/V0etpOqiLx1JwB5S3beHW0s=</v>
-      </c>
-      <c r="D3" t="str">
-        <v>tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss=</v>
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic=</v>
+        <v>1.11</v>
       </c>
       <c r="F3" t="str">
-        <v>UqXUoHHYLK6ocymGjSL2uDkKw9Inxv3g1FJeaVEOxHk=</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
-        <v>[2]</v>
+        <v>[5,1]</v>
       </c>
       <c r="B6" t="str">
-        <v>[2]</v>
+        <v>[5,1]</v>
       </c>
       <c r="C6" t="str">
-        <v>[2]</v>
+        <v>[6]</v>
       </c>
       <c r="D6" t="str">
-        <v>[2]</v>
+        <v>[5,1]</v>
       </c>
       <c r="E6" t="str">
-        <v>[2]</v>
+        <v>[6]</v>
       </c>
       <c r="F6" t="str">
-        <v>[2]</v>
+        <v>[6]</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
-        <v>Contrib: 1WlUDONHZRGjGMyteYzO96lRCig8K2wpUtmOmaUkn1c=
-Total: 2
-Group: 2
-Split: [2]</v>
+        <v>Contrib: 0000GB00XXX
+Total: 6
+Group: 5
+Split: [5,1]</v>
       </c>
       <c r="B7" t="str">
-        <v>Contrib: tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k=
-Total: 2
-Group: 2
-Split: [2]</v>
+        <v>Contrib: FC
+Total: 6
+Group: 5
+Split: [5,1]</v>
       </c>
       <c r="C7" t="str">
-        <v>Contrib: a4ayc/80/OGda4BO/1o/V0etpOqiLx1JwB5S3beHW0s=
-Total: 2
-Group: 2
-Split: [2]</v>
+        <v>Contrib: 1
+Total: 6
+Group: 6
+Split: [6]</v>
       </c>
       <c r="D7" t="str">
-        <v>Contrib: tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss=
-Total: 2
-Group: 2
-Split: [2]</v>
+        <v>Contrib: True
+Total: 6
+Group: 5
+Split: [5,1]</v>
       </c>
       <c r="E7" t="str">
-        <v>Contrib: sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic=
-Total: 2
-Group: 2
-Split: [2]</v>
+        <v>Contrib: 1.11
+Total: 6
+Group: 6
+Split: [6]</v>
       </c>
       <c r="F7" t="str">
-        <v>Contrib: UqXUoHHYLK6ocymGjSL2uDkKw9Inxv3g1FJeaVEOxHk=
-Total: 2
-Group: 2
-Split: [2]</v>
+        <v>Contrib: 1000000000
+Total: 6
+Group: 6
+Split: [6]</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
-        <v>full consensus</v>
+        <v>split consensus with majority</v>
       </c>
       <c r="B8" t="str">
-        <v>full consensus</v>
+        <v>split consensus with majority</v>
       </c>
       <c r="C8" t="str">
         <v>full consensus</v>
       </c>
       <c r="D8" t="str">
-        <v>full consensus</v>
+        <v>split consensus with majority</v>
       </c>
       <c r="E8" t="str">
         <v>full consensus</v>
@@ -22094,36 +22168,36 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B10" t="e">
-        <v>#N/A</v>
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D10" t="e">
-        <v>#N/A</v>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10" t="e">
         <v>#N/A</v>
@@ -22645,7 +22719,7 @@
   <dimension ref="B2:U48"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22676,7 +22750,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="39" t="str">
         <f>VLOOKUP(C2,Upload!B:D,3,0)</f>
-        <v>Executed @12/11/2018 13:02:16</v>
+        <v>Executed @14/11/2018 16:47:46</v>
       </c>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
@@ -22708,27 +22782,27 @@
         <v>[_x000D_
   {_x000D_
     "name": "BIC",_x000D_
-    "value": "1WlUDONHZRGjGMyteYzO96lRCig8K2wpUtmOmaUkn1c="_x000D_
+    "value": ""_x000D_
   },_x000D_
   {_x000D_
     "name": "EMIR",_x000D_
-    "value": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+    "value": "FC"_x000D_
   },_x000D_
   {_x000D_
     "name": "NACE",_x000D_
-    "value": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+    "value": "1.11"_x000D_
   },_x000D_
   {_x000D_
     "name": "IF",_x000D_
-    "value": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+    "value": true_x000D_
   },_x000D_
   {_x000D_
     "name": "GK",_x000D_
-    "value": "a4ayc/80/OGda4BO/1o/V0etpOqiLx1JwB5S3beHW0s="_x000D_
+    "value": "1"_x000D_
   },_x000D_
   {_x000D_
     "name": "PERMID",_x000D_
-    "value": "UqXUoHHYLK6ocymGjSL2uDkKw9Inxv3g1FJeaVEOxHk="_x000D_
+    "value": "1000000000"_x000D_
   }_x000D_
 ]</v>
       </c>
@@ -22736,7 +22810,7 @@
       <c r="D5" s="56"/>
       <c r="F5" s="45" t="str" cm="1">
         <f t="array" ref="F5">_xll.Secretarium.Encrypt(_xll.MADRec.Format.Contrib(C2,B5))</f>
-        <v>inMdDy9mywr_lRnC4DQ5jA_gJO0JtYg7m5jJ7eCcusWOnpSExIP9RMVKXsWslaKTmb0PzO25tPnFUdeIn0e3AcLnN2ydJEboUQsy-XAsxguakh3LtNH0RZCKFDza4OqblYEKJ-9rTMyq8l_bRGV_kwR2OqTTqOXmC0cDP2FiZemLEiX_qOJNDry5yJEaoGthslMoMcymMnluPBUy_N8c1ypdtP2k7q-ICEKXb4F17ZziDT3j14zzl8OVso08QSAMgH8tH8CH9F5T7OaDe52Z2iy8VNX-qHvgqwBLTAD0A-UTpPIFavo_HO9ruO37Fm96Cc3zWajXQ5Az4UuQFoZYCNeMcKqM68U_KLbbbLWjEjJDSBSonh-joZ9oJgCxsXM2tgkaUos_19YZRQ5K13NE1D_2e0h5ElTXnTGYp8ODyJt98e2FYJrOZAIiPmTNjVkIDoWxNnh6-vqQzB5GMc5SiV4ywdhjE5kV6dAsN_qjgFj64qwt-sRx5VGU7jCm1j8uc5dzygaBPtOloUv1p6bKghxRUmp39G9njM5YbUP-srGB1uoiQHxSTwHM2tm_UdyYLaFGrG0qjx7SYz4i0BqKFduIa642yRWHe4SMuTZgGdRpS8x-_Xra1hWkv_-5nRrFU7Id2wGXwoEYthmcZHGe6d9l2AefRqC432tudKK-5ZKelkyR27eMx6HF41CbwI4ZgLtlSPZGlS8ucLX5WBWqmWdutv2gcANKzgEQEZCoJCGN_p0zr_KdAbW12Y4KW95XOVJjA9e3tvJrDEds3WFucrLLdERZWlo72HL1lQYqBhL1BIZwLSG0kU5R19R8pDSqcO5a78mG1oAS9_JqwcCUuEgp-VEivMwa0IotVshAm_FLmuWsq--Ysj6eN0KrITf-UT2ellpVugQ=</v>
+        <v>zWK5a7T7N9Px6nVje0sjngPehiCi7VSWJcPEY31i8Nc3b8pBsb7z2Y3fuJ6ss8su0BkAqznVU0vI91bBWn48JvH9_lI_qazJ9PkbwF9RTpGRxsP2pvBfU_SWg8uOdSYkXsTPxuRB7hUSR8EMcqHOHHwGnV0cjPQrrHyelob8KmM3Rb4LlnvsykXleyEEMX5URhRJEH7T4qY1ysGyq3A5TYasLFOqUwjSPtzpfq6PKtJjNdvl-CYjKRiYuIOqCJ4FJIaMxVTY4EoAx2Qxz0CK18lUouMIZbKnpmN_44hQAuL36I0I16Pzl7-Cg5Xg2oV176dt7IBes2rsnILdkr9grFY1_vl5ef-SKh_aFMX73yHdHCaXGLoSvvJ3YLE4JhEOcdl74fNgB2wABcePe3IvRkYDa5WKgUZHJgU253hZvrQWLFhGE5S1tskXrLfHh4N5QxVes1gDeUolANGBWud7ZUaJQ3s3K4w1UwUJocyK5HS-wGJtBYpwK6HA3ROMY3p2ycPnxD9VHo1cdCETQgyRAZDNCr4RyOLY6JOcY98k8O1stGDcuhV2yoW5itqwDNsF2-R7</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="47"/>
@@ -22748,56 +22822,59 @@
     {_x000D_
       "name": "BIC",_x000D_
       "split": [_x000D_
-        2_x000D_
+        5,_x000D_
+        1_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "1WlUDONHZRGjGMyteYzO96lRCig8K2wpUtmOmaUkn1c="_x000D_
+      "total": 6,_x000D_
+      "group": 5,_x000D_
+      "contribution": "0000GB00XXX"_x000D_
     },_x000D_
     {_x000D_
       "name": "EMIR",_x000D_
       "split": [_x000D_
-        2_x000D_
+        1,_x000D_
+        5_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "tHd8zBcvsH5m52WC/LrgGvkVTL3FlsH2auriEMn1s6k="_x000D_
+      "total": 6,_x000D_
+      "group": 5,_x000D_
+      "contribution": "FC"_x000D_
     },_x000D_
     {_x000D_
       "name": "GK",_x000D_
       "split": [_x000D_
-        2_x000D_
+        6_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "a4ayc/80/OGda4BO/1o/V0etpOqiLx1JwB5S3beHW0s="_x000D_
+      "total": 6,_x000D_
+      "group": 6,_x000D_
+      "contribution": "1"_x000D_
     },_x000D_
     {_x000D_
       "name": "IF",_x000D_
       "split": [_x000D_
-        2_x000D_
+        1,_x000D_
+        5_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "tb6kG2xiP3wJ8b8k3K5Y66s8DN2QrZZrxDpFtEhn4Ss="_x000D_
+      "total": 6,_x000D_
+      "group": 5,_x000D_
+      "contribution": true_x000D_
     },_x000D_
     {_x000D_
       "name": "NACE",_x000D_
       "split": [_x000D_
-        2_x000D_
+        6_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "sJbBNLZowZuQLcEoBrULe6zoJzOfWZZBBNpnjWSQoic="_x000D_
+      "total": 6,_x000D_
+      "group": 6,_x000D_
+      "contribution": "1.11"_x000D_
     },_x000D_
     {_x000D_
       "name": "PERMID",_x000D_
       "split": [_x000D_
-        2_x000D_
+        6_x000D_
       ],_x000D_
-      "total": 2,_x000D_
-      "group": 2,_x000D_
-      "contribution": "UqXUoHHYLK6ocymGjSL2uDkKw9Inxv3g1FJeaVEOxHk="_x000D_
+      "total": 6,_x000D_
+      "group": 6,_x000D_
+      "contribution": "1000000000"_x000D_
     }_x000D_
   ]_x000D_
 }</v>
@@ -23313,7 +23390,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{8C13EE20-C79B-4071-9F00-D1AC354D5FDB}">
           <x14:formula1>
-            <xm:f>Upload!$B$5:$B$104</xm:f>
+            <xm:f>Upload!$B$4:$B$104</xm:f>
           </x14:formula1>
           <xm:sqref>C2:F2</xm:sqref>
         </x14:dataValidation>
